--- a/BackTest/2019-10-30 BackTest WAX.xlsx
+++ b/BackTest/2019-10-30 BackTest WAX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>472.6646</v>
       </c>
       <c r="G2" t="n">
-        <v>-242617.5901000001</v>
+        <v>29.96</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>18075.2746</v>
       </c>
       <c r="G3" t="n">
-        <v>-224542.3155000001</v>
+        <v>29.94</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -501,6 +507,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -522,7 +529,7 @@
         <v>4416.6943</v>
       </c>
       <c r="G4" t="n">
-        <v>-220125.6212000001</v>
+        <v>29.935</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -544,6 +551,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -565,7 +573,7 @@
         <v>12239.4647</v>
       </c>
       <c r="G5" t="n">
-        <v>-220125.6212000001</v>
+        <v>29.93</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -587,6 +595,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -608,7 +617,7 @@
         <v>23154.541</v>
       </c>
       <c r="G6" t="n">
-        <v>-243280.1622</v>
+        <v>29.92499999999999</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -630,6 +639,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -651,7 +661,7 @@
         <v>13488.9353</v>
       </c>
       <c r="G7" t="n">
-        <v>-243280.1622</v>
+        <v>29.91499999999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -671,6 +681,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -692,7 +703,7 @@
         <v>37.5846</v>
       </c>
       <c r="G8" t="n">
-        <v>-243242.5776</v>
+        <v>29.91999999999999</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -714,6 +725,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -735,7 +747,7 @@
         <v>24606.1258</v>
       </c>
       <c r="G9" t="n">
-        <v>-267848.7034000001</v>
+        <v>29.90499999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -755,6 +767,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -776,7 +789,7 @@
         <v>607.3003</v>
       </c>
       <c r="G10" t="n">
-        <v>-267848.7034000001</v>
+        <v>29.89499999999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -796,6 +809,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -817,7 +831,7 @@
         <v>5057.1183</v>
       </c>
       <c r="G11" t="n">
-        <v>-267848.7034000001</v>
+        <v>29.88499999999998</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -837,6 +851,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -858,7 +873,7 @@
         <v>1000</v>
       </c>
       <c r="G12" t="n">
-        <v>-267848.7034000001</v>
+        <v>29.87999999999998</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -878,6 +893,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -899,7 +915,7 @@
         <v>2000</v>
       </c>
       <c r="G13" t="n">
-        <v>-267848.7034000001</v>
+        <v>29.87999999999998</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -921,6 +937,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -942,7 +959,7 @@
         <v>167.7852</v>
       </c>
       <c r="G14" t="n">
-        <v>-267848.7034000001</v>
+        <v>29.88999999999998</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -962,6 +979,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -983,7 +1001,7 @@
         <v>9032.258900000001</v>
       </c>
       <c r="G15" t="n">
-        <v>-258816.4445</v>
+        <v>29.90499999999998</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1003,6 +1021,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1024,7 +1043,7 @@
         <v>8161.9333</v>
       </c>
       <c r="G16" t="n">
-        <v>-258816.4445</v>
+        <v>29.91499999999998</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1044,6 +1063,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1065,7 +1085,7 @@
         <v>27027.5142</v>
       </c>
       <c r="G17" t="n">
-        <v>-285843.9587</v>
+        <v>29.90999999999998</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1085,6 +1105,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1106,7 +1127,7 @@
         <v>24176.0505</v>
       </c>
       <c r="G18" t="n">
-        <v>-261667.9082</v>
+        <v>29.90999999999998</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1126,6 +1147,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1147,7 +1169,7 @@
         <v>104.4666</v>
       </c>
       <c r="G19" t="n">
-        <v>-261667.9082</v>
+        <v>29.91999999999998</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1167,6 +1189,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1188,7 +1211,7 @@
         <v>3367.0033</v>
       </c>
       <c r="G20" t="n">
-        <v>-265034.9115</v>
+        <v>29.92499999999998</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1208,6 +1231,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1229,7 +1253,7 @@
         <v>135.6399</v>
       </c>
       <c r="G21" t="n">
-        <v>-264899.2716</v>
+        <v>29.93499999999998</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1249,6 +1273,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1270,7 +1295,7 @@
         <v>3343.8858</v>
       </c>
       <c r="G22" t="n">
-        <v>-264899.2716</v>
+        <v>29.94499999999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1290,6 +1315,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1311,7 +1337,7 @@
         <v>1368.7942</v>
       </c>
       <c r="G23" t="n">
-        <v>-264899.2716</v>
+        <v>29.94499999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1331,6 +1357,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1352,7 +1379,7 @@
         <v>26200</v>
       </c>
       <c r="G24" t="n">
-        <v>-291099.2716</v>
+        <v>29.93499999999998</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1372,6 +1399,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1393,7 +1421,7 @@
         <v>11821.6344</v>
       </c>
       <c r="G25" t="n">
-        <v>-291099.2716</v>
+        <v>29.92499999999998</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1413,6 +1441,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1434,7 +1463,7 @@
         <v>20000</v>
       </c>
       <c r="G26" t="n">
-        <v>-291099.2716</v>
+        <v>29.91499999999998</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1454,6 +1483,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1475,7 +1505,7 @@
         <v>7287.32</v>
       </c>
       <c r="G27" t="n">
-        <v>-283811.9516</v>
+        <v>29.91499999999998</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1495,6 +1525,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1516,7 +1547,7 @@
         <v>3749.5889</v>
       </c>
       <c r="G28" t="n">
-        <v>-283811.9516</v>
+        <v>29.90499999999998</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1536,6 +1567,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1557,7 +1589,7 @@
         <v>11089.9077</v>
       </c>
       <c r="G29" t="n">
-        <v>-283811.9516</v>
+        <v>29.91499999999998</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1577,6 +1609,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1598,7 +1631,7 @@
         <v>6315.6071</v>
       </c>
       <c r="G30" t="n">
-        <v>-283811.9516</v>
+        <v>29.92499999999998</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1618,6 +1651,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1639,7 +1673,7 @@
         <v>1572.9074</v>
       </c>
       <c r="G31" t="n">
-        <v>-282239.0441999999</v>
+        <v>29.93999999999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1659,6 +1693,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1680,7 +1715,7 @@
         <v>10000</v>
       </c>
       <c r="G32" t="n">
-        <v>-292239.0441999999</v>
+        <v>29.94999999999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1700,6 +1735,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1721,7 +1757,7 @@
         <v>3521</v>
       </c>
       <c r="G33" t="n">
-        <v>-292239.0441999999</v>
+        <v>29.95999999999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1741,6 +1777,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1762,7 +1799,7 @@
         <v>42757.9103</v>
       </c>
       <c r="G34" t="n">
-        <v>-249481.1339</v>
+        <v>29.97499999999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1782,6 +1819,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1803,7 +1841,7 @@
         <v>10</v>
       </c>
       <c r="G35" t="n">
-        <v>-249471.1339</v>
+        <v>29.995</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1823,6 +1861,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1844,7 +1883,7 @@
         <v>2761.3259</v>
       </c>
       <c r="G36" t="n">
-        <v>-249471.1339</v>
+        <v>30.005</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1864,6 +1903,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1885,7 +1925,7 @@
         <v>1945.5336</v>
       </c>
       <c r="G37" t="n">
-        <v>-247525.6003</v>
+        <v>30.02</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1905,6 +1945,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1926,7 +1967,7 @@
         <v>16435.298</v>
       </c>
       <c r="G38" t="n">
-        <v>-263960.8982999999</v>
+        <v>30.03000000000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1946,6 +1987,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1967,7 +2009,7 @@
         <v>420.78</v>
       </c>
       <c r="G39" t="n">
-        <v>-264381.6783</v>
+        <v>30.03500000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1987,6 +2029,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2008,7 +2051,7 @@
         <v>637.229</v>
       </c>
       <c r="G40" t="n">
-        <v>-263744.4493</v>
+        <v>30.05500000000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2028,6 +2071,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2049,7 +2093,7 @@
         <v>34343.4567</v>
       </c>
       <c r="G41" t="n">
-        <v>-263744.4493</v>
+        <v>30.07</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2069,6 +2113,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2090,7 +2135,7 @@
         <v>10000</v>
       </c>
       <c r="G42" t="n">
-        <v>-263744.4493</v>
+        <v>30.085</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2110,6 +2155,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2131,7 +2177,7 @@
         <v>637.229</v>
       </c>
       <c r="G43" t="n">
-        <v>-263744.4493</v>
+        <v>30.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2151,6 +2197,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2172,7 +2219,7 @@
         <v>2874.3518</v>
       </c>
       <c r="G44" t="n">
-        <v>-263744.4493</v>
+        <v>30.12</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2192,6 +2239,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2213,7 +2261,7 @@
         <v>5885.2145</v>
       </c>
       <c r="G45" t="n">
-        <v>-263744.4493</v>
+        <v>30.14</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2233,6 +2281,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2254,7 +2303,7 @@
         <v>3856.7338</v>
       </c>
       <c r="G46" t="n">
-        <v>-267601.1831</v>
+        <v>30.155</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2274,6 +2323,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2295,7 +2345,7 @@
         <v>2886.8199</v>
       </c>
       <c r="G47" t="n">
-        <v>-267601.1831</v>
+        <v>30.16</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2315,6 +2365,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2336,7 +2387,7 @@
         <v>28901.0099</v>
       </c>
       <c r="G48" t="n">
-        <v>-267601.1831</v>
+        <v>30.165</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2356,6 +2407,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2377,7 +2429,7 @@
         <v>40490.708</v>
       </c>
       <c r="G49" t="n">
-        <v>-267601.1831</v>
+        <v>30.17000000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2397,6 +2449,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2418,7 +2471,7 @@
         <v>10428.2321</v>
       </c>
       <c r="G50" t="n">
-        <v>-267601.1831</v>
+        <v>30.175</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2438,6 +2491,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2459,7 +2513,7 @@
         <v>1366.9934</v>
       </c>
       <c r="G51" t="n">
-        <v>-266234.1897</v>
+        <v>30.185</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
@@ -2481,6 +2535,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2502,7 +2557,7 @@
         <v>29155.9409</v>
       </c>
       <c r="G52" t="n">
-        <v>-237078.2488</v>
+        <v>30.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2522,6 +2577,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2543,7 +2599,7 @@
         <v>33105.6708</v>
       </c>
       <c r="G53" t="n">
-        <v>-237078.2488</v>
+        <v>30.22</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2563,6 +2619,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2584,7 +2641,7 @@
         <v>20547.3908</v>
       </c>
       <c r="G54" t="n">
-        <v>-237078.2488</v>
+        <v>30.235</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2604,6 +2661,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2625,7 +2683,7 @@
         <v>4877.5195</v>
       </c>
       <c r="G55" t="n">
-        <v>-232200.7293</v>
+        <v>30.24999999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2645,6 +2703,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2666,7 +2725,7 @@
         <v>22370.1598</v>
       </c>
       <c r="G56" t="n">
-        <v>-254570.8891</v>
+        <v>30.26499999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2686,6 +2745,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2707,7 +2767,7 @@
         <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>-254560.8891</v>
+        <v>30.27999999999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2727,6 +2787,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2748,7 +2809,7 @@
         <v>1676.0869</v>
       </c>
       <c r="G58" t="n">
-        <v>-252884.8022</v>
+        <v>30.29999999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2768,6 +2829,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2789,7 +2851,7 @@
         <v>8492.8251</v>
       </c>
       <c r="G59" t="n">
-        <v>-252884.8022</v>
+        <v>30.32499999999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2809,6 +2871,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2830,7 +2893,7 @@
         <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>-252874.8022</v>
+        <v>30.34499999999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2850,6 +2913,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2871,7 +2935,7 @@
         <v>41244.0945</v>
       </c>
       <c r="G61" t="n">
-        <v>-294118.8967</v>
+        <v>30.36</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2891,6 +2955,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2912,7 +2977,7 @@
         <v>23.7581</v>
       </c>
       <c r="G62" t="n">
-        <v>-294118.8967</v>
+        <v>30.375</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2932,6 +2997,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2953,7 +3019,7 @@
         <v>8433.969300000001</v>
       </c>
       <c r="G63" t="n">
-        <v>-302552.866</v>
+        <v>30.38</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2973,6 +3039,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2994,7 +3061,7 @@
         <v>93748.26330000001</v>
       </c>
       <c r="G64" t="n">
-        <v>-208804.6027</v>
+        <v>30.385</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3014,6 +3081,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3035,7 +3103,7 @@
         <v>152141.0361</v>
       </c>
       <c r="G65" t="n">
-        <v>-56663.56659999999</v>
+        <v>30.415</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3055,6 +3123,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3076,7 +3145,7 @@
         <v>66351.69809999999</v>
       </c>
       <c r="G66" t="n">
-        <v>9688.131500000003</v>
+        <v>30.46</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3096,6 +3165,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3117,7 +3187,7 @@
         <v>12987.7569</v>
       </c>
       <c r="G67" t="n">
-        <v>9688.131500000003</v>
+        <v>30.51</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3137,6 +3207,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3158,7 +3229,7 @@
         <v>85511.66099999999</v>
       </c>
       <c r="G68" t="n">
-        <v>95199.7925</v>
+        <v>30.56</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3178,6 +3249,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3199,7 +3271,7 @@
         <v>3690</v>
       </c>
       <c r="G69" t="n">
-        <v>91509.7925</v>
+        <v>30.605</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3219,6 +3291,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3240,7 +3313,7 @@
         <v>1310</v>
       </c>
       <c r="G70" t="n">
-        <v>91509.7925</v>
+        <v>30.65</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3260,6 +3333,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3281,7 +3355,7 @@
         <v>1619.7809</v>
       </c>
       <c r="G71" t="n">
-        <v>91509.7925</v>
+        <v>30.685</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3301,6 +3375,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3322,7 +3397,7 @@
         <v>5068.2966</v>
       </c>
       <c r="G72" t="n">
-        <v>86441.49589999999</v>
+        <v>30.715</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3342,6 +3417,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3363,7 +3439,7 @@
         <v>52967.3237</v>
       </c>
       <c r="G73" t="n">
-        <v>139408.8196</v>
+        <v>30.74</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3383,6 +3459,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3404,7 +3481,7 @@
         <v>20272.725</v>
       </c>
       <c r="G74" t="n">
-        <v>119136.0946</v>
+        <v>30.77</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3424,6 +3501,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3445,7 +3523,7 @@
         <v>18068.8375</v>
       </c>
       <c r="G75" t="n">
-        <v>119136.0946</v>
+        <v>30.79500000000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3465,6 +3543,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3486,7 +3565,7 @@
         <v>16394.2098</v>
       </c>
       <c r="G76" t="n">
-        <v>102741.8848</v>
+        <v>30.815</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3506,6 +3585,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3527,7 +3607,7 @@
         <v>70486.4376</v>
       </c>
       <c r="G77" t="n">
-        <v>173228.3224</v>
+        <v>30.84</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3547,6 +3627,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3568,7 +3649,7 @@
         <v>20</v>
       </c>
       <c r="G78" t="n">
-        <v>173208.3224</v>
+        <v>30.86</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3588,6 +3669,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3609,7 +3691,7 @@
         <v>2906.0218</v>
       </c>
       <c r="G79" t="n">
-        <v>173208.3224</v>
+        <v>30.88</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3629,6 +3711,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3650,7 +3733,7 @@
         <v>2386.2144</v>
       </c>
       <c r="G80" t="n">
-        <v>175594.5368</v>
+        <v>30.895</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3670,6 +3753,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3691,7 +3775,7 @@
         <v>1606.0218</v>
       </c>
       <c r="G81" t="n">
-        <v>173988.515</v>
+        <v>30.92</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3711,6 +3795,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3732,7 +3817,7 @@
         <v>690.1894</v>
       </c>
       <c r="G82" t="n">
-        <v>174678.7044</v>
+        <v>30.95</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3752,6 +3837,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3773,13 +3859,13 @@
         <v>6211.2202</v>
       </c>
       <c r="G83" t="n">
-        <v>174678.7044</v>
+        <v>30.99</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
@@ -3787,11 +3873,14 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>1</v>
+        <v>1.041979865771812</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1.01006711409396</v>
       </c>
     </row>
     <row r="84">
@@ -3814,7 +3903,7 @@
         <v>22708.7892</v>
       </c>
       <c r="G84" t="n">
-        <v>197387.4936</v>
+        <v>31.035</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3823,17 +3912,12 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3855,26 +3939,21 @@
         <v>70259.1814</v>
       </c>
       <c r="G85" t="n">
-        <v>197387.4936</v>
+        <v>31.06</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3896,26 +3975,21 @@
         <v>3662.7063</v>
       </c>
       <c r="G86" t="n">
-        <v>197387.4936</v>
+        <v>31.07</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3937,7 +4011,7 @@
         <v>1857.366</v>
       </c>
       <c r="G87" t="n">
-        <v>197387.4936</v>
+        <v>31.07999999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3946,17 +4020,12 @@
         <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>1.045335570469799</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3978,13 +4047,13 @@
         <v>6898.6559</v>
       </c>
       <c r="G88" t="n">
-        <v>190488.8377</v>
+        <v>31.08999999999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3992,6 +4061,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4013,13 +4083,13 @@
         <v>135.1096</v>
       </c>
       <c r="G89" t="n">
-        <v>190353.7281</v>
+        <v>31.09499999999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -4027,6 +4097,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4048,7 +4119,7 @@
         <v>20533.7916</v>
       </c>
       <c r="G90" t="n">
-        <v>169819.9365</v>
+        <v>31.09999999999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4062,6 +4133,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4083,13 +4155,13 @@
         <v>8878.6266</v>
       </c>
       <c r="G91" t="n">
-        <v>178698.5631</v>
+        <v>31.11999999999999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -4097,6 +4169,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4118,13 +4191,13 @@
         <v>6023.4666</v>
       </c>
       <c r="G92" t="n">
-        <v>178698.5631</v>
+        <v>31.14499999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -4132,6 +4205,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4153,7 +4227,7 @@
         <v>23079.1232</v>
       </c>
       <c r="G93" t="n">
-        <v>155619.4399</v>
+        <v>31.16999999999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4167,6 +4241,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4188,7 +4263,7 @@
         <v>922.5</v>
       </c>
       <c r="G94" t="n">
-        <v>156541.9399</v>
+        <v>31.16999999999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4202,6 +4277,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4223,13 +4299,13 @@
         <v>2049.6401</v>
       </c>
       <c r="G95" t="n">
-        <v>156541.9399</v>
+        <v>31.16999999999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -4237,6 +4313,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4258,13 +4335,13 @@
         <v>2404.3761</v>
       </c>
       <c r="G96" t="n">
-        <v>156541.9399</v>
+        <v>31.16999999999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4272,6 +4349,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4293,13 +4371,13 @@
         <v>10738.1661</v>
       </c>
       <c r="G97" t="n">
-        <v>167280.106</v>
+        <v>31.17499999999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4307,6 +4385,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4328,13 +4407,13 @@
         <v>3021.0855</v>
       </c>
       <c r="G98" t="n">
-        <v>167280.106</v>
+        <v>31.18</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4342,6 +4421,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4363,7 +4443,7 @@
         <v>6437.7927</v>
       </c>
       <c r="G99" t="n">
-        <v>167280.106</v>
+        <v>31.185</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4377,6 +4457,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4398,7 +4479,7 @@
         <v>2814.2793</v>
       </c>
       <c r="G100" t="n">
-        <v>167280.106</v>
+        <v>31.19</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4412,6 +4493,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4433,7 +4515,7 @@
         <v>1053.5738</v>
       </c>
       <c r="G101" t="n">
-        <v>166226.5322</v>
+        <v>31.185</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4447,6 +4529,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4468,13 +4551,13 @@
         <v>6372.6045</v>
       </c>
       <c r="G102" t="n">
-        <v>172599.1367</v>
+        <v>31.18</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4482,6 +4565,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4503,13 +4587,13 @@
         <v>6016.4705</v>
       </c>
       <c r="G103" t="n">
-        <v>172599.1367</v>
+        <v>31.17499999999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4517,6 +4601,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4538,13 +4623,13 @@
         <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>172599.1367</v>
+        <v>31.165</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4552,6 +4637,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4573,13 +4659,13 @@
         <v>16896.4225</v>
       </c>
       <c r="G105" t="n">
-        <v>172599.1367</v>
+        <v>31.15</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4587,6 +4673,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4608,7 +4695,7 @@
         <v>4219.1504</v>
       </c>
       <c r="G106" t="n">
-        <v>176818.2871</v>
+        <v>31.14</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4622,6 +4709,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4643,13 +4731,13 @@
         <v>18539.5348</v>
       </c>
       <c r="G107" t="n">
-        <v>158278.7523</v>
+        <v>31.12500000000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4657,6 +4745,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4678,7 +4767,7 @@
         <v>75.8712</v>
       </c>
       <c r="G108" t="n">
-        <v>158278.7523</v>
+        <v>31.11000000000001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4692,6 +4781,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4713,7 +4803,7 @@
         <v>10323.9996</v>
       </c>
       <c r="G109" t="n">
-        <v>147954.7527</v>
+        <v>31.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4727,6 +4817,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4748,7 +4839,7 @@
         <v>17887.3427</v>
       </c>
       <c r="G110" t="n">
-        <v>165842.0954</v>
+        <v>31.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4762,6 +4853,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4783,7 +4875,7 @@
         <v>5010</v>
       </c>
       <c r="G111" t="n">
-        <v>165842.0954</v>
+        <v>31.08500000000001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4797,6 +4889,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4818,7 +4911,7 @@
         <v>94533.5407</v>
       </c>
       <c r="G112" t="n">
-        <v>71308.55469999999</v>
+        <v>31.07000000000001</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4832,6 +4925,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4853,7 +4947,7 @@
         <v>51</v>
       </c>
       <c r="G113" t="n">
-        <v>71308.55469999999</v>
+        <v>31.05000000000001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4867,6 +4961,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-30 BackTest WAX.xlsx
+++ b/BackTest/2019-10-30 BackTest WAX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="C2" t="n">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="D2" t="n">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="E2" t="n">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="F2" t="n">
-        <v>472.6646</v>
+        <v>165.5629</v>
       </c>
       <c r="G2" t="n">
-        <v>29.96</v>
+        <v>-53818.74640000002</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,35 +474,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="E3" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="F3" t="n">
-        <v>18075.2746</v>
+        <v>10000</v>
       </c>
       <c r="G3" t="n">
-        <v>29.94</v>
+        <v>-63818.74640000002</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K3" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -514,40 +510,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="C4" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="D4" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="E4" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="F4" t="n">
-        <v>4416.6943</v>
+        <v>1317.7878</v>
       </c>
       <c r="G4" t="n">
-        <v>29.935</v>
+        <v>-62500.95860000002</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>30</v>
-      </c>
-      <c r="K4" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -558,40 +546,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="C5" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="D5" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="E5" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="F5" t="n">
-        <v>12239.4647</v>
+        <v>10000</v>
       </c>
       <c r="G5" t="n">
-        <v>29.93</v>
+        <v>-52500.95860000002</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -602,40 +582,32 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30.1</v>
+        <v>30.5</v>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="D6" t="n">
-        <v>30.1</v>
+        <v>30.5</v>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="F6" t="n">
-        <v>23154.541</v>
+        <v>14991</v>
       </c>
       <c r="G6" t="n">
-        <v>29.92499999999999</v>
+        <v>-37509.95860000002</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -646,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>30.4</v>
       </c>
       <c r="D7" t="n">
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>30.4</v>
       </c>
       <c r="F7" t="n">
-        <v>13488.9353</v>
+        <v>2434.8098</v>
       </c>
       <c r="G7" t="n">
-        <v>29.91499999999999</v>
+        <v>-39944.76840000002</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -670,14 +642,8 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -688,40 +654,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="C8" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="D8" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="E8" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="F8" t="n">
-        <v>37.5846</v>
+        <v>999.5804000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>29.91999999999999</v>
+        <v>-39944.76840000002</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>30</v>
-      </c>
-      <c r="K8" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -732,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>29.8</v>
+        <v>30.5</v>
       </c>
       <c r="C9" t="n">
-        <v>29.8</v>
+        <v>30.5</v>
       </c>
       <c r="D9" t="n">
-        <v>29.8</v>
+        <v>30.5</v>
       </c>
       <c r="E9" t="n">
-        <v>29.8</v>
+        <v>30.5</v>
       </c>
       <c r="F9" t="n">
-        <v>24606.1258</v>
+        <v>491.6921</v>
       </c>
       <c r="G9" t="n">
-        <v>29.90499999999999</v>
+        <v>-39453.07630000002</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -756,14 +714,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -774,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>29.8</v>
+        <v>30.5</v>
       </c>
       <c r="C10" t="n">
-        <v>29.8</v>
+        <v>30.5</v>
       </c>
       <c r="D10" t="n">
-        <v>29.8</v>
+        <v>30.5</v>
       </c>
       <c r="E10" t="n">
-        <v>29.8</v>
+        <v>30.5</v>
       </c>
       <c r="F10" t="n">
-        <v>607.3003</v>
+        <v>2393.0025</v>
       </c>
       <c r="G10" t="n">
-        <v>29.89499999999999</v>
+        <v>-39453.07630000002</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -798,14 +750,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -816,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>29.8</v>
+        <v>30.4</v>
       </c>
       <c r="C11" t="n">
-        <v>29.8</v>
+        <v>30.4</v>
       </c>
       <c r="D11" t="n">
-        <v>29.8</v>
+        <v>30.4</v>
       </c>
       <c r="E11" t="n">
-        <v>29.8</v>
+        <v>30.4</v>
       </c>
       <c r="F11" t="n">
-        <v>5057.1183</v>
+        <v>50</v>
       </c>
       <c r="G11" t="n">
-        <v>29.88499999999998</v>
+        <v>-39503.07630000002</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -840,14 +786,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -858,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>29.8</v>
+        <v>30.4</v>
       </c>
       <c r="C12" t="n">
-        <v>29.8</v>
+        <v>30.3</v>
       </c>
       <c r="D12" t="n">
-        <v>29.8</v>
+        <v>30.4</v>
       </c>
       <c r="E12" t="n">
-        <v>29.8</v>
+        <v>30.3</v>
       </c>
       <c r="F12" t="n">
-        <v>1000</v>
+        <v>31699.8553</v>
       </c>
       <c r="G12" t="n">
-        <v>29.87999999999998</v>
+        <v>-71202.93160000003</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -882,14 +822,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -900,40 +834,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="C13" t="n">
-        <v>29.8</v>
+        <v>30.1</v>
       </c>
       <c r="D13" t="n">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="E13" t="n">
-        <v>29.8</v>
+        <v>30.1</v>
       </c>
       <c r="F13" t="n">
-        <v>2000</v>
+        <v>28429.6596</v>
       </c>
       <c r="G13" t="n">
-        <v>29.87999999999998</v>
+        <v>-99632.59120000002</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K13" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -944,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="C14" t="n">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="D14" t="n">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="E14" t="n">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="F14" t="n">
-        <v>167.7852</v>
+        <v>14066.8973</v>
       </c>
       <c r="G14" t="n">
-        <v>29.88999999999998</v>
+        <v>-85565.69390000003</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -968,14 +894,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -986,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="D15" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="E15" t="n">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="F15" t="n">
-        <v>9032.258900000001</v>
+        <v>5000</v>
       </c>
       <c r="G15" t="n">
-        <v>29.90499999999998</v>
+        <v>-85565.69390000003</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1010,14 +930,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1028,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="D16" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="E16" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="F16" t="n">
-        <v>8161.9333</v>
+        <v>2000</v>
       </c>
       <c r="G16" t="n">
-        <v>29.91499999999998</v>
+        <v>-85565.69390000003</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1052,14 +966,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1070,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>29.9</v>
+        <v>30.1</v>
       </c>
       <c r="C17" t="n">
-        <v>29.9</v>
+        <v>30.1</v>
       </c>
       <c r="D17" t="n">
-        <v>29.9</v>
+        <v>30.1</v>
       </c>
       <c r="E17" t="n">
-        <v>29.9</v>
+        <v>30.1</v>
       </c>
       <c r="F17" t="n">
-        <v>27027.5142</v>
+        <v>22742.2271</v>
       </c>
       <c r="G17" t="n">
-        <v>29.90999999999998</v>
+        <v>-108307.921</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1094,14 +1002,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1112,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="C18" t="n">
         <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="E18" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="F18" t="n">
-        <v>24176.0505</v>
+        <v>97979.88250000001</v>
       </c>
       <c r="G18" t="n">
-        <v>29.90999999999998</v>
+        <v>-206287.8035</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1136,14 +1038,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1166,10 +1062,10 @@
         <v>30</v>
       </c>
       <c r="F19" t="n">
-        <v>104.4666</v>
+        <v>6295.0128</v>
       </c>
       <c r="G19" t="n">
-        <v>29.91999999999998</v>
+        <v>-206287.8035</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1178,14 +1074,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1196,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="C20" t="n">
         <v>29.9</v>
       </c>
       <c r="D20" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="E20" t="n">
         <v>29.9</v>
       </c>
       <c r="F20" t="n">
-        <v>3367.0033</v>
+        <v>3189.4451</v>
       </c>
       <c r="G20" t="n">
-        <v>29.92499999999998</v>
+        <v>-209477.2486</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1220,14 +1110,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1238,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="D21" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="F21" t="n">
-        <v>135.6399</v>
+        <v>36324.125</v>
       </c>
       <c r="G21" t="n">
-        <v>29.93499999999998</v>
+        <v>-209477.2486</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1262,14 +1146,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1280,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="C22" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="D22" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="F22" t="n">
-        <v>3343.8858</v>
+        <v>94202.5285</v>
       </c>
       <c r="G22" t="n">
-        <v>29.94499999999999</v>
+        <v>-303679.7771000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1304,14 +1182,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1322,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>30</v>
+        <v>29.6</v>
       </c>
       <c r="C23" t="n">
-        <v>30</v>
+        <v>29.4</v>
       </c>
       <c r="D23" t="n">
-        <v>30</v>
+        <v>29.6</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>29.4</v>
       </c>
       <c r="F23" t="n">
-        <v>1368.7942</v>
+        <v>33679.4787</v>
       </c>
       <c r="G23" t="n">
-        <v>29.94499999999999</v>
+        <v>-337359.2558</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1346,14 +1218,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1364,38 +1230,36 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="C24" t="n">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="D24" t="n">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="E24" t="n">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="F24" t="n">
-        <v>26200</v>
+        <v>23914.0479</v>
       </c>
       <c r="G24" t="n">
-        <v>29.93499999999998</v>
+        <v>-313445.2079</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>29.4</v>
+      </c>
       <c r="K24" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>29.4</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1406,36 +1270,38 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="C25" t="n">
-        <v>29.9</v>
+        <v>29.6</v>
       </c>
       <c r="D25" t="n">
         <v>29.9</v>
       </c>
       <c r="E25" t="n">
-        <v>29.9</v>
+        <v>29.6</v>
       </c>
       <c r="F25" t="n">
-        <v>11821.6344</v>
+        <v>77264.22229999999</v>
       </c>
       <c r="G25" t="n">
-        <v>29.92499999999998</v>
+        <v>-236180.9856</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K25" t="n">
-        <v>29.8</v>
+        <v>29.4</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M25" t="n">
@@ -1448,22 +1314,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="E26" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="F26" t="n">
-        <v>20000</v>
+        <v>5702.4333</v>
       </c>
       <c r="G26" t="n">
-        <v>29.91499999999998</v>
+        <v>-230478.5523</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1473,11 +1339,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>29.8</v>
+        <v>29.4</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -1502,10 +1368,10 @@
         <v>30</v>
       </c>
       <c r="F27" t="n">
-        <v>7287.32</v>
+        <v>333.3333</v>
       </c>
       <c r="G27" t="n">
-        <v>29.91499999999998</v>
+        <v>-230478.5523</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1514,14 +1380,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1532,22 +1392,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="C28" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="D28" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="F28" t="n">
-        <v>3749.5889</v>
+        <v>9259.25</v>
       </c>
       <c r="G28" t="n">
-        <v>29.90499999999998</v>
+        <v>-239737.8023</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1556,14 +1416,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1574,22 +1428,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="C29" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="D29" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="F29" t="n">
-        <v>11089.9077</v>
+        <v>4000</v>
       </c>
       <c r="G29" t="n">
-        <v>29.91499999999998</v>
+        <v>-235737.8023</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1598,14 +1452,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1616,22 +1464,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="C30" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="D30" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="F30" t="n">
-        <v>6315.6071</v>
+        <v>7352.4524</v>
       </c>
       <c r="G30" t="n">
-        <v>29.92499999999998</v>
+        <v>-243090.2547</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1640,14 +1488,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1658,22 +1500,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="C31" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="D31" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="E31" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="F31" t="n">
-        <v>1572.9074</v>
+        <v>472.6646</v>
       </c>
       <c r="G31" t="n">
-        <v>29.93999999999999</v>
+        <v>-242617.5901000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1682,14 +1524,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1712,26 +1548,24 @@
         <v>30</v>
       </c>
       <c r="F32" t="n">
-        <v>10000</v>
+        <v>18075.2746</v>
       </c>
       <c r="G32" t="n">
-        <v>29.94999999999999</v>
+        <v>-224542.3155000001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>29.8</v>
+      </c>
       <c r="K32" t="n">
         <v>29.8</v>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1742,22 +1576,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="C33" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="D33" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="E33" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="F33" t="n">
-        <v>3521</v>
+        <v>4416.6943</v>
       </c>
       <c r="G33" t="n">
-        <v>29.95999999999999</v>
+        <v>-220125.6212000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1771,7 +1605,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M33" t="n">
@@ -1796,10 +1630,10 @@
         <v>30.1</v>
       </c>
       <c r="F34" t="n">
-        <v>42757.9103</v>
+        <v>12239.4647</v>
       </c>
       <c r="G34" t="n">
-        <v>29.97499999999999</v>
+        <v>-220125.6212000001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1813,7 +1647,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M34" t="n">
@@ -1826,22 +1660,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="C35" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="E35" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>23154.541</v>
       </c>
       <c r="G35" t="n">
-        <v>29.995</v>
+        <v>-243280.1622</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1850,14 +1684,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1868,22 +1696,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="C36" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="D36" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="E36" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="F36" t="n">
-        <v>2761.3259</v>
+        <v>13488.9353</v>
       </c>
       <c r="G36" t="n">
-        <v>30.005</v>
+        <v>-243280.1622</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1892,14 +1720,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1913,19 +1735,19 @@
         <v>30.2</v>
       </c>
       <c r="C37" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="D37" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="E37" t="n">
         <v>30.2</v>
       </c>
       <c r="F37" t="n">
-        <v>1945.5336</v>
+        <v>37.5846</v>
       </c>
       <c r="G37" t="n">
-        <v>30.02</v>
+        <v>-243242.5776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1934,14 +1756,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1952,22 +1768,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>30.2</v>
+        <v>29.8</v>
       </c>
       <c r="C38" t="n">
-        <v>30.2</v>
+        <v>29.8</v>
       </c>
       <c r="D38" t="n">
-        <v>30.2</v>
+        <v>29.8</v>
       </c>
       <c r="E38" t="n">
-        <v>30.2</v>
+        <v>29.8</v>
       </c>
       <c r="F38" t="n">
-        <v>16435.298</v>
+        <v>24606.1258</v>
       </c>
       <c r="G38" t="n">
-        <v>30.03000000000001</v>
+        <v>-267848.7034000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1976,14 +1792,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1994,22 +1804,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="C39" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="D39" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="E39" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="F39" t="n">
-        <v>420.78</v>
+        <v>607.3003</v>
       </c>
       <c r="G39" t="n">
-        <v>30.03500000000001</v>
+        <v>-267848.7034000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2018,14 +1828,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2036,22 +1840,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="C40" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="D40" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="E40" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="F40" t="n">
-        <v>637.229</v>
+        <v>5057.1183</v>
       </c>
       <c r="G40" t="n">
-        <v>30.05500000000001</v>
+        <v>-267848.7034000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2060,14 +1864,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +1876,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="C41" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="D41" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="E41" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="F41" t="n">
-        <v>34343.4567</v>
+        <v>1000</v>
       </c>
       <c r="G41" t="n">
-        <v>30.07</v>
+        <v>-267848.7034000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2102,14 +1900,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2120,22 +1912,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="C42" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="D42" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="E42" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="F42" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G42" t="n">
-        <v>30.085</v>
+        <v>-267848.7034000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2144,14 +1936,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2162,38 +1948,36 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="C43" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="D43" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="E43" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="F43" t="n">
-        <v>637.229</v>
+        <v>167.7852</v>
       </c>
       <c r="G43" t="n">
-        <v>30.1</v>
+        <v>-267848.7034000001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>29.8</v>
+      </c>
       <c r="K43" t="n">
         <v>29.8</v>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2204,36 +1988,38 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="C44" t="n">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="D44" t="n">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="E44" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="F44" t="n">
-        <v>2874.3518</v>
+        <v>9032.258900000001</v>
       </c>
       <c r="G44" t="n">
-        <v>30.12</v>
+        <v>-258816.4445</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>29.8</v>
+      </c>
       <c r="K44" t="n">
         <v>29.8</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M44" t="n">
@@ -2246,30 +2032,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="C45" t="n">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="D45" t="n">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="E45" t="n">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="F45" t="n">
-        <v>5885.2145</v>
+        <v>8161.9333</v>
       </c>
       <c r="G45" t="n">
-        <v>30.14</v>
+        <v>-258816.4445</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>30</v>
+      </c>
       <c r="K45" t="n">
         <v>29.8</v>
       </c>
@@ -2288,22 +2076,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>30.2</v>
+        <v>29.9</v>
       </c>
       <c r="C46" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="D46" t="n">
-        <v>30.2</v>
+        <v>29.9</v>
       </c>
       <c r="E46" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="F46" t="n">
-        <v>3856.7338</v>
+        <v>27027.5142</v>
       </c>
       <c r="G46" t="n">
-        <v>30.155</v>
+        <v>-285843.9587</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2330,30 +2118,32 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="C47" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="D47" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="E47" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="F47" t="n">
-        <v>2886.8199</v>
+        <v>24176.0505</v>
       </c>
       <c r="G47" t="n">
-        <v>30.16</v>
+        <v>-261667.9082</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>29.9</v>
+      </c>
       <c r="K47" t="n">
         <v>29.8</v>
       </c>
@@ -2372,30 +2162,32 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="C48" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="D48" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="E48" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="F48" t="n">
-        <v>28901.0099</v>
+        <v>104.4666</v>
       </c>
       <c r="G48" t="n">
-        <v>30.165</v>
+        <v>-261667.9082</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>30</v>
+      </c>
       <c r="K48" t="n">
         <v>29.8</v>
       </c>
@@ -2414,22 +2206,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="C49" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="D49" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="E49" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="F49" t="n">
-        <v>40490.708</v>
+        <v>3367.0033</v>
       </c>
       <c r="G49" t="n">
-        <v>30.17000000000001</v>
+        <v>-265034.9115</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2456,22 +2248,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="C50" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="D50" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="E50" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="F50" t="n">
-        <v>10428.2321</v>
+        <v>135.6399</v>
       </c>
       <c r="G50" t="n">
-        <v>30.175</v>
+        <v>-264899.2716</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2498,32 +2290,30 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="C51" t="n">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="D51" t="n">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="E51" t="n">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="F51" t="n">
-        <v>1366.9934</v>
+        <v>3343.8858</v>
       </c>
       <c r="G51" t="n">
-        <v>30.185</v>
+        <v>-264899.2716</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>30.1</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
         <v>29.8</v>
       </c>
@@ -2542,22 +2332,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="C52" t="n">
-        <v>30.4</v>
+        <v>30</v>
       </c>
       <c r="D52" t="n">
-        <v>30.4</v>
+        <v>30</v>
       </c>
       <c r="E52" t="n">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="F52" t="n">
-        <v>29155.9409</v>
+        <v>1368.7942</v>
       </c>
       <c r="G52" t="n">
-        <v>30.2</v>
+        <v>-264899.2716</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2584,22 +2374,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>30.4</v>
+        <v>29.9</v>
       </c>
       <c r="C53" t="n">
-        <v>30.4</v>
+        <v>29.9</v>
       </c>
       <c r="D53" t="n">
-        <v>30.4</v>
+        <v>29.9</v>
       </c>
       <c r="E53" t="n">
-        <v>30.4</v>
+        <v>29.9</v>
       </c>
       <c r="F53" t="n">
-        <v>33105.6708</v>
+        <v>26200</v>
       </c>
       <c r="G53" t="n">
-        <v>30.22</v>
+        <v>-291099.2716</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2626,22 +2416,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>30.4</v>
+        <v>29.9</v>
       </c>
       <c r="C54" t="n">
-        <v>30.4</v>
+        <v>29.9</v>
       </c>
       <c r="D54" t="n">
-        <v>30.5</v>
+        <v>29.9</v>
       </c>
       <c r="E54" t="n">
-        <v>30.4</v>
+        <v>29.9</v>
       </c>
       <c r="F54" t="n">
-        <v>20547.3908</v>
+        <v>11821.6344</v>
       </c>
       <c r="G54" t="n">
-        <v>30.235</v>
+        <v>-291099.2716</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2668,30 +2458,32 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>30.5</v>
+        <v>29.9</v>
       </c>
       <c r="C55" t="n">
-        <v>30.5</v>
+        <v>29.9</v>
       </c>
       <c r="D55" t="n">
-        <v>30.5</v>
+        <v>29.9</v>
       </c>
       <c r="E55" t="n">
-        <v>30.5</v>
+        <v>29.9</v>
       </c>
       <c r="F55" t="n">
-        <v>4877.5195</v>
+        <v>20000</v>
       </c>
       <c r="G55" t="n">
-        <v>30.24999999999999</v>
+        <v>-291099.2716</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>29.9</v>
+      </c>
       <c r="K55" t="n">
         <v>29.8</v>
       </c>
@@ -2710,30 +2502,32 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="C56" t="n">
-        <v>30.4</v>
+        <v>30</v>
       </c>
       <c r="D56" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="E56" t="n">
-        <v>30.4</v>
+        <v>30</v>
       </c>
       <c r="F56" t="n">
-        <v>22370.1598</v>
+        <v>7287.32</v>
       </c>
       <c r="G56" t="n">
-        <v>30.26499999999999</v>
+        <v>-283811.9516</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>29.9</v>
+      </c>
       <c r="K56" t="n">
         <v>29.8</v>
       </c>
@@ -2752,30 +2546,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="C57" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="D57" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="E57" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="F57" t="n">
-        <v>10</v>
+        <v>3749.5889</v>
       </c>
       <c r="G57" t="n">
-        <v>30.27999999999999</v>
+        <v>-283811.9516</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>30</v>
+      </c>
       <c r="K57" t="n">
         <v>29.8</v>
       </c>
@@ -2794,30 +2590,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>30.6</v>
+        <v>30</v>
       </c>
       <c r="C58" t="n">
-        <v>30.6</v>
+        <v>30</v>
       </c>
       <c r="D58" t="n">
-        <v>30.6</v>
+        <v>30</v>
       </c>
       <c r="E58" t="n">
-        <v>30.6</v>
+        <v>30</v>
       </c>
       <c r="F58" t="n">
-        <v>1676.0869</v>
+        <v>11089.9077</v>
       </c>
       <c r="G58" t="n">
-        <v>30.29999999999999</v>
+        <v>-283811.9516</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>30</v>
+      </c>
       <c r="K58" t="n">
         <v>29.8</v>
       </c>
@@ -2836,30 +2634,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>30.6</v>
+        <v>30</v>
       </c>
       <c r="C59" t="n">
-        <v>30.6</v>
+        <v>30</v>
       </c>
       <c r="D59" t="n">
-        <v>30.6</v>
+        <v>30</v>
       </c>
       <c r="E59" t="n">
-        <v>30.6</v>
+        <v>30</v>
       </c>
       <c r="F59" t="n">
-        <v>8492.8251</v>
+        <v>6315.6071</v>
       </c>
       <c r="G59" t="n">
-        <v>30.32499999999999</v>
+        <v>-283811.9516</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>30</v>
+      </c>
       <c r="K59" t="n">
         <v>29.8</v>
       </c>
@@ -2878,30 +2678,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>30.7</v>
+        <v>30.1</v>
       </c>
       <c r="C60" t="n">
-        <v>30.7</v>
+        <v>30.1</v>
       </c>
       <c r="D60" t="n">
-        <v>30.7</v>
+        <v>30.1</v>
       </c>
       <c r="E60" t="n">
-        <v>30.7</v>
+        <v>30.1</v>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>1572.9074</v>
       </c>
       <c r="G60" t="n">
-        <v>30.34499999999999</v>
+        <v>-282239.0441999999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>30</v>
+      </c>
       <c r="K60" t="n">
         <v>29.8</v>
       </c>
@@ -2920,22 +2722,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>30.6</v>
+        <v>30</v>
       </c>
       <c r="C61" t="n">
-        <v>30.6</v>
+        <v>30</v>
       </c>
       <c r="D61" t="n">
-        <v>30.6</v>
+        <v>30</v>
       </c>
       <c r="E61" t="n">
-        <v>30.6</v>
+        <v>30</v>
       </c>
       <c r="F61" t="n">
-        <v>41244.0945</v>
+        <v>10000</v>
       </c>
       <c r="G61" t="n">
-        <v>30.36</v>
+        <v>-292239.0441999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2962,22 +2764,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>30.6</v>
+        <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.6</v>
+        <v>30</v>
       </c>
       <c r="D62" t="n">
-        <v>30.6</v>
+        <v>30</v>
       </c>
       <c r="E62" t="n">
-        <v>30.6</v>
+        <v>30</v>
       </c>
       <c r="F62" t="n">
-        <v>23.7581</v>
+        <v>3521</v>
       </c>
       <c r="G62" t="n">
-        <v>30.375</v>
+        <v>-292239.0441999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3004,30 +2806,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>30.4</v>
+        <v>30.1</v>
       </c>
       <c r="C63" t="n">
-        <v>30.4</v>
+        <v>30.1</v>
       </c>
       <c r="D63" t="n">
-        <v>30.4</v>
+        <v>30.1</v>
       </c>
       <c r="E63" t="n">
-        <v>30.4</v>
+        <v>30.1</v>
       </c>
       <c r="F63" t="n">
-        <v>8433.969300000001</v>
+        <v>42757.9103</v>
       </c>
       <c r="G63" t="n">
-        <v>30.38</v>
+        <v>-249481.1339</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>30</v>
+      </c>
       <c r="K63" t="n">
         <v>29.8</v>
       </c>
@@ -3046,22 +2850,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="C64" t="n">
-        <v>30.9</v>
+        <v>30.2</v>
       </c>
       <c r="D64" t="n">
-        <v>30.9</v>
+        <v>30.2</v>
       </c>
       <c r="E64" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="F64" t="n">
-        <v>93748.26330000001</v>
+        <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>30.385</v>
+        <v>-249471.1339</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3088,22 +2892,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>30.9</v>
+        <v>30.2</v>
       </c>
       <c r="C65" t="n">
-        <v>31</v>
+        <v>30.2</v>
       </c>
       <c r="D65" t="n">
-        <v>31</v>
+        <v>30.2</v>
       </c>
       <c r="E65" t="n">
-        <v>30.9</v>
+        <v>30.2</v>
       </c>
       <c r="F65" t="n">
-        <v>152141.0361</v>
+        <v>2761.3259</v>
       </c>
       <c r="G65" t="n">
-        <v>30.415</v>
+        <v>-249471.1339</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3130,22 +2934,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>31.1</v>
+        <v>30.2</v>
       </c>
       <c r="C66" t="n">
-        <v>31.1</v>
+        <v>30.3</v>
       </c>
       <c r="D66" t="n">
-        <v>31.1</v>
+        <v>30.3</v>
       </c>
       <c r="E66" t="n">
-        <v>31.1</v>
+        <v>30.2</v>
       </c>
       <c r="F66" t="n">
-        <v>66351.69809999999</v>
+        <v>1945.5336</v>
       </c>
       <c r="G66" t="n">
-        <v>30.46</v>
+        <v>-247525.6003</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3172,22 +2976,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>31.1</v>
+        <v>30.2</v>
       </c>
       <c r="C67" t="n">
-        <v>31.1</v>
+        <v>30.2</v>
       </c>
       <c r="D67" t="n">
-        <v>31.1</v>
+        <v>30.2</v>
       </c>
       <c r="E67" t="n">
-        <v>31.1</v>
+        <v>30.2</v>
       </c>
       <c r="F67" t="n">
-        <v>12987.7569</v>
+        <v>16435.298</v>
       </c>
       <c r="G67" t="n">
-        <v>30.51</v>
+        <v>-263960.8982999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3214,22 +3018,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>31.1</v>
+        <v>30.1</v>
       </c>
       <c r="C68" t="n">
-        <v>31.5</v>
+        <v>30.1</v>
       </c>
       <c r="D68" t="n">
-        <v>31.5</v>
+        <v>30.1</v>
       </c>
       <c r="E68" t="n">
-        <v>31.1</v>
+        <v>30.1</v>
       </c>
       <c r="F68" t="n">
-        <v>85511.66099999999</v>
+        <v>420.78</v>
       </c>
       <c r="G68" t="n">
-        <v>30.56</v>
+        <v>-264381.6783</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3256,22 +3060,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>31</v>
+        <v>30.3</v>
       </c>
       <c r="C69" t="n">
-        <v>31</v>
+        <v>30.3</v>
       </c>
       <c r="D69" t="n">
-        <v>31</v>
+        <v>30.3</v>
       </c>
       <c r="E69" t="n">
-        <v>31</v>
+        <v>30.3</v>
       </c>
       <c r="F69" t="n">
-        <v>3690</v>
+        <v>637.229</v>
       </c>
       <c r="G69" t="n">
-        <v>30.605</v>
+        <v>-263744.4493</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3298,22 +3102,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>31</v>
+        <v>30.3</v>
       </c>
       <c r="C70" t="n">
-        <v>31</v>
+        <v>30.3</v>
       </c>
       <c r="D70" t="n">
-        <v>31</v>
+        <v>30.3</v>
       </c>
       <c r="E70" t="n">
-        <v>31</v>
+        <v>30.3</v>
       </c>
       <c r="F70" t="n">
-        <v>1310</v>
+        <v>34343.4567</v>
       </c>
       <c r="G70" t="n">
-        <v>30.65</v>
+        <v>-263744.4493</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3340,22 +3144,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>31</v>
+        <v>30.3</v>
       </c>
       <c r="C71" t="n">
-        <v>31</v>
+        <v>30.3</v>
       </c>
       <c r="D71" t="n">
-        <v>31</v>
+        <v>30.3</v>
       </c>
       <c r="E71" t="n">
-        <v>31</v>
+        <v>30.3</v>
       </c>
       <c r="F71" t="n">
-        <v>1619.7809</v>
+        <v>10000</v>
       </c>
       <c r="G71" t="n">
-        <v>30.685</v>
+        <v>-263744.4493</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3382,22 +3186,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>30.9</v>
+        <v>30.3</v>
       </c>
       <c r="C72" t="n">
-        <v>30.9</v>
+        <v>30.3</v>
       </c>
       <c r="D72" t="n">
-        <v>30.9</v>
+        <v>30.3</v>
       </c>
       <c r="E72" t="n">
-        <v>30.9</v>
+        <v>30.3</v>
       </c>
       <c r="F72" t="n">
-        <v>5068.2966</v>
+        <v>637.229</v>
       </c>
       <c r="G72" t="n">
-        <v>30.715</v>
+        <v>-263744.4493</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3424,22 +3228,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>30.9</v>
+        <v>30.3</v>
       </c>
       <c r="C73" t="n">
-        <v>31.3</v>
+        <v>30.3</v>
       </c>
       <c r="D73" t="n">
-        <v>31.3</v>
+        <v>30.3</v>
       </c>
       <c r="E73" t="n">
-        <v>30.9</v>
+        <v>30.3</v>
       </c>
       <c r="F73" t="n">
-        <v>52967.3237</v>
+        <v>2874.3518</v>
       </c>
       <c r="G73" t="n">
-        <v>30.74</v>
+        <v>-263744.4493</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3466,22 +3270,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>31</v>
+        <v>30.3</v>
       </c>
       <c r="C74" t="n">
-        <v>31</v>
+        <v>30.3</v>
       </c>
       <c r="D74" t="n">
-        <v>31</v>
+        <v>30.3</v>
       </c>
       <c r="E74" t="n">
-        <v>31</v>
+        <v>30.3</v>
       </c>
       <c r="F74" t="n">
-        <v>20272.725</v>
+        <v>5885.2145</v>
       </c>
       <c r="G74" t="n">
-        <v>30.77</v>
+        <v>-263744.4493</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3508,22 +3312,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>31</v>
+        <v>30.2</v>
       </c>
       <c r="C75" t="n">
-        <v>31</v>
+        <v>30.1</v>
       </c>
       <c r="D75" t="n">
-        <v>31</v>
+        <v>30.2</v>
       </c>
       <c r="E75" t="n">
-        <v>31</v>
+        <v>30.1</v>
       </c>
       <c r="F75" t="n">
-        <v>18068.8375</v>
+        <v>3856.7338</v>
       </c>
       <c r="G75" t="n">
-        <v>30.79500000000001</v>
+        <v>-267601.1831</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3550,30 +3354,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>30.9</v>
+        <v>30.1</v>
       </c>
       <c r="C76" t="n">
-        <v>30.8</v>
+        <v>30.1</v>
       </c>
       <c r="D76" t="n">
-        <v>30.9</v>
+        <v>30.1</v>
       </c>
       <c r="E76" t="n">
-        <v>30.8</v>
+        <v>30.1</v>
       </c>
       <c r="F76" t="n">
-        <v>16394.2098</v>
+        <v>2886.8199</v>
       </c>
       <c r="G76" t="n">
-        <v>30.815</v>
+        <v>-267601.1831</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>30.1</v>
+      </c>
       <c r="K76" t="n">
         <v>29.8</v>
       </c>
@@ -3592,30 +3398,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>31</v>
+        <v>30.1</v>
       </c>
       <c r="C77" t="n">
-        <v>31.3</v>
+        <v>30.1</v>
       </c>
       <c r="D77" t="n">
-        <v>31.3</v>
+        <v>30.1</v>
       </c>
       <c r="E77" t="n">
-        <v>31</v>
+        <v>30.1</v>
       </c>
       <c r="F77" t="n">
-        <v>70486.4376</v>
+        <v>28901.0099</v>
       </c>
       <c r="G77" t="n">
-        <v>30.84</v>
+        <v>-267601.1831</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>30.1</v>
+      </c>
       <c r="K77" t="n">
         <v>29.8</v>
       </c>
@@ -3634,30 +3442,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>31</v>
+        <v>30.1</v>
       </c>
       <c r="C78" t="n">
-        <v>31</v>
+        <v>30.1</v>
       </c>
       <c r="D78" t="n">
-        <v>31</v>
+        <v>30.1</v>
       </c>
       <c r="E78" t="n">
-        <v>31</v>
+        <v>30.1</v>
       </c>
       <c r="F78" t="n">
-        <v>20</v>
+        <v>40490.708</v>
       </c>
       <c r="G78" t="n">
-        <v>30.86</v>
+        <v>-267601.1831</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>30.1</v>
+      </c>
       <c r="K78" t="n">
         <v>29.8</v>
       </c>
@@ -3676,30 +3486,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>31</v>
+        <v>30.1</v>
       </c>
       <c r="C79" t="n">
-        <v>31</v>
+        <v>30.1</v>
       </c>
       <c r="D79" t="n">
-        <v>31</v>
+        <v>30.1</v>
       </c>
       <c r="E79" t="n">
-        <v>31</v>
+        <v>30.1</v>
       </c>
       <c r="F79" t="n">
-        <v>2906.0218</v>
+        <v>10428.2321</v>
       </c>
       <c r="G79" t="n">
-        <v>30.88</v>
+        <v>-267601.1831</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>30.1</v>
+      </c>
       <c r="K79" t="n">
         <v>29.8</v>
       </c>
@@ -3718,30 +3530,32 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>31</v>
+        <v>30.3</v>
       </c>
       <c r="C80" t="n">
-        <v>31.2</v>
+        <v>30.3</v>
       </c>
       <c r="D80" t="n">
-        <v>31.2</v>
+        <v>30.3</v>
       </c>
       <c r="E80" t="n">
-        <v>30.9</v>
+        <v>30.3</v>
       </c>
       <c r="F80" t="n">
-        <v>2386.2144</v>
+        <v>1366.9934</v>
       </c>
       <c r="G80" t="n">
-        <v>30.895</v>
+        <v>-266234.1897</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>30.1</v>
+      </c>
       <c r="K80" t="n">
         <v>29.8</v>
       </c>
@@ -3760,30 +3574,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>31.1</v>
+        <v>30.3</v>
       </c>
       <c r="C81" t="n">
-        <v>31.1</v>
+        <v>30.4</v>
       </c>
       <c r="D81" t="n">
-        <v>31.1</v>
+        <v>30.4</v>
       </c>
       <c r="E81" t="n">
-        <v>31.1</v>
+        <v>30.3</v>
       </c>
       <c r="F81" t="n">
-        <v>1606.0218</v>
+        <v>29155.9409</v>
       </c>
       <c r="G81" t="n">
-        <v>30.92</v>
+        <v>-237078.2488</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>30.3</v>
+      </c>
       <c r="K81" t="n">
         <v>29.8</v>
       </c>
@@ -3802,30 +3618,32 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>31.2</v>
+        <v>30.4</v>
       </c>
       <c r="C82" t="n">
-        <v>31.2</v>
+        <v>30.4</v>
       </c>
       <c r="D82" t="n">
-        <v>31.2</v>
+        <v>30.4</v>
       </c>
       <c r="E82" t="n">
-        <v>31.2</v>
+        <v>30.4</v>
       </c>
       <c r="F82" t="n">
-        <v>690.1894</v>
+        <v>33105.6708</v>
       </c>
       <c r="G82" t="n">
-        <v>30.95</v>
+        <v>-237078.2488</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>30.4</v>
+      </c>
       <c r="K82" t="n">
         <v>29.8</v>
       </c>
@@ -3844,76 +3662,84 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>31.2</v>
+        <v>30.4</v>
       </c>
       <c r="C83" t="n">
-        <v>31.2</v>
+        <v>30.4</v>
       </c>
       <c r="D83" t="n">
-        <v>31.2</v>
+        <v>30.5</v>
       </c>
       <c r="E83" t="n">
-        <v>31.2</v>
+        <v>30.4</v>
       </c>
       <c r="F83" t="n">
-        <v>6211.2202</v>
+        <v>20547.3908</v>
       </c>
       <c r="G83" t="n">
-        <v>30.99</v>
+        <v>-237078.2488</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>30.4</v>
+      </c>
       <c r="K83" t="n">
         <v>29.8</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>1.041979865771812</v>
-      </c>
-      <c r="N83" t="n">
-        <v>1.01006711409396</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>31.3</v>
+        <v>30.5</v>
       </c>
       <c r="C84" t="n">
-        <v>31.3</v>
+        <v>30.5</v>
       </c>
       <c r="D84" t="n">
-        <v>31.4</v>
+        <v>30.5</v>
       </c>
       <c r="E84" t="n">
-        <v>31.3</v>
+        <v>30.5</v>
       </c>
       <c r="F84" t="n">
-        <v>22708.7892</v>
+        <v>4877.5195</v>
       </c>
       <c r="G84" t="n">
-        <v>31.035</v>
+        <v>-232200.7293</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="K84" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3924,32 +3750,38 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>31.4</v>
+        <v>30.5</v>
       </c>
       <c r="C85" t="n">
-        <v>31.3</v>
+        <v>30.4</v>
       </c>
       <c r="D85" t="n">
-        <v>31.4</v>
+        <v>30.5</v>
       </c>
       <c r="E85" t="n">
-        <v>31.3</v>
+        <v>30.4</v>
       </c>
       <c r="F85" t="n">
-        <v>70259.1814</v>
+        <v>22370.1598</v>
       </c>
       <c r="G85" t="n">
-        <v>31.06</v>
+        <v>-254570.8891</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3960,32 +3792,38 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>31.3</v>
+        <v>30.5</v>
       </c>
       <c r="C86" t="n">
-        <v>31.3</v>
+        <v>30.5</v>
       </c>
       <c r="D86" t="n">
-        <v>31.3</v>
+        <v>30.5</v>
       </c>
       <c r="E86" t="n">
-        <v>31.3</v>
+        <v>30.5</v>
       </c>
       <c r="F86" t="n">
-        <v>3662.7063</v>
+        <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>31.07</v>
+        <v>-254560.8891</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3996,32 +3834,38 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>31.3</v>
+        <v>30.6</v>
       </c>
       <c r="C87" t="n">
-        <v>31.3</v>
+        <v>30.6</v>
       </c>
       <c r="D87" t="n">
-        <v>31.3</v>
+        <v>30.6</v>
       </c>
       <c r="E87" t="n">
-        <v>31.3</v>
+        <v>30.6</v>
       </c>
       <c r="F87" t="n">
-        <v>1857.366</v>
+        <v>1676.0869</v>
       </c>
       <c r="G87" t="n">
-        <v>31.07999999999999</v>
+        <v>-252884.8022</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4032,32 +3876,38 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>31.3</v>
+        <v>30.6</v>
       </c>
       <c r="C88" t="n">
-        <v>31.2</v>
+        <v>30.6</v>
       </c>
       <c r="D88" t="n">
-        <v>31.3</v>
+        <v>30.6</v>
       </c>
       <c r="E88" t="n">
-        <v>31.2</v>
+        <v>30.6</v>
       </c>
       <c r="F88" t="n">
-        <v>6898.6559</v>
+        <v>8492.8251</v>
       </c>
       <c r="G88" t="n">
-        <v>31.08999999999999</v>
+        <v>-252884.8022</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4068,32 +3918,38 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>31.1</v>
+        <v>30.7</v>
       </c>
       <c r="C89" t="n">
-        <v>31.1</v>
+        <v>30.7</v>
       </c>
       <c r="D89" t="n">
-        <v>31.1</v>
+        <v>30.7</v>
       </c>
       <c r="E89" t="n">
-        <v>31.1</v>
+        <v>30.7</v>
       </c>
       <c r="F89" t="n">
-        <v>135.1096</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>31.09499999999999</v>
+        <v>-252874.8022</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4104,22 +3960,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>31.1</v>
+        <v>30.6</v>
       </c>
       <c r="C90" t="n">
-        <v>30.9</v>
+        <v>30.6</v>
       </c>
       <c r="D90" t="n">
-        <v>31.1</v>
+        <v>30.6</v>
       </c>
       <c r="E90" t="n">
-        <v>30.9</v>
+        <v>30.6</v>
       </c>
       <c r="F90" t="n">
-        <v>20533.7916</v>
+        <v>41244.0945</v>
       </c>
       <c r="G90" t="n">
-        <v>31.09999999999999</v>
+        <v>-294118.8967</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4128,8 +3984,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4140,32 +4002,38 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>31.4</v>
+        <v>30.6</v>
       </c>
       <c r="C91" t="n">
-        <v>31.4</v>
+        <v>30.6</v>
       </c>
       <c r="D91" t="n">
-        <v>31.4</v>
+        <v>30.6</v>
       </c>
       <c r="E91" t="n">
-        <v>31.4</v>
+        <v>30.6</v>
       </c>
       <c r="F91" t="n">
-        <v>8878.6266</v>
+        <v>23.7581</v>
       </c>
       <c r="G91" t="n">
-        <v>31.11999999999999</v>
+        <v>-294118.8967</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4176,32 +4044,40 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>31.4</v>
+        <v>30.4</v>
       </c>
       <c r="C92" t="n">
-        <v>31.4</v>
+        <v>30.4</v>
       </c>
       <c r="D92" t="n">
-        <v>31.4</v>
+        <v>30.4</v>
       </c>
       <c r="E92" t="n">
-        <v>31.4</v>
+        <v>30.4</v>
       </c>
       <c r="F92" t="n">
-        <v>6023.4666</v>
+        <v>8433.969300000001</v>
       </c>
       <c r="G92" t="n">
-        <v>31.14499999999999</v>
+        <v>-302552.866</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K92" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4212,32 +4088,40 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>31.4</v>
+        <v>30.4</v>
       </c>
       <c r="C93" t="n">
         <v>30.9</v>
       </c>
       <c r="D93" t="n">
-        <v>31.4</v>
+        <v>30.9</v>
       </c>
       <c r="E93" t="n">
-        <v>30.9</v>
+        <v>30.4</v>
       </c>
       <c r="F93" t="n">
-        <v>23079.1232</v>
+        <v>93748.26330000001</v>
       </c>
       <c r="G93" t="n">
-        <v>31.16999999999999</v>
+        <v>-208804.6027</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="K93" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4248,7 +4132,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="C94" t="n">
         <v>31</v>
@@ -4257,23 +4141,29 @@
         <v>31</v>
       </c>
       <c r="E94" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="F94" t="n">
-        <v>922.5</v>
+        <v>152141.0361</v>
       </c>
       <c r="G94" t="n">
-        <v>31.16999999999999</v>
+        <v>-56663.56659999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4284,32 +4174,38 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="C95" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="D95" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="E95" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="F95" t="n">
-        <v>2049.6401</v>
+        <v>66351.69809999999</v>
       </c>
       <c r="G95" t="n">
-        <v>31.16999999999999</v>
+        <v>9688.131500000003</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4320,32 +4216,38 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="C96" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="D96" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="E96" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="F96" t="n">
-        <v>2404.3761</v>
+        <v>12987.7569</v>
       </c>
       <c r="G96" t="n">
-        <v>31.16999999999999</v>
+        <v>9688.131500000003</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4359,29 +4261,35 @@
         <v>31.1</v>
       </c>
       <c r="C97" t="n">
-        <v>31.1</v>
+        <v>31.5</v>
       </c>
       <c r="D97" t="n">
-        <v>31.1</v>
+        <v>31.5</v>
       </c>
       <c r="E97" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="F97" t="n">
-        <v>10738.1661</v>
+        <v>85511.66099999999</v>
       </c>
       <c r="G97" t="n">
-        <v>31.17499999999999</v>
+        <v>95199.7925</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4392,32 +4300,38 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="C98" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="D98" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="E98" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="F98" t="n">
-        <v>3021.0855</v>
+        <v>3690</v>
       </c>
       <c r="G98" t="n">
-        <v>31.18</v>
+        <v>91509.7925</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4428,32 +4342,38 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="C99" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="D99" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="E99" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="F99" t="n">
-        <v>6437.7927</v>
+        <v>1310</v>
       </c>
       <c r="G99" t="n">
-        <v>31.185</v>
+        <v>91509.7925</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4464,32 +4384,38 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="C100" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="D100" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="E100" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="F100" t="n">
-        <v>2814.2793</v>
+        <v>1619.7809</v>
       </c>
       <c r="G100" t="n">
-        <v>31.19</v>
+        <v>91509.7925</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4500,32 +4426,38 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="C101" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="D101" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="E101" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="F101" t="n">
-        <v>1053.5738</v>
+        <v>5068.2966</v>
       </c>
       <c r="G101" t="n">
-        <v>31.185</v>
+        <v>86441.49589999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4536,32 +4468,38 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="C102" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="D102" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="E102" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="F102" t="n">
-        <v>6372.6045</v>
+        <v>52967.3237</v>
       </c>
       <c r="G102" t="n">
-        <v>31.18</v>
+        <v>139408.8196</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4572,32 +4510,38 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="C103" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="D103" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="E103" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="F103" t="n">
-        <v>6016.4705</v>
+        <v>20272.725</v>
       </c>
       <c r="G103" t="n">
-        <v>31.17499999999999</v>
+        <v>119136.0946</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4608,32 +4552,38 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="C104" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="D104" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="E104" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="F104" t="n">
-        <v>10</v>
+        <v>18068.8375</v>
       </c>
       <c r="G104" t="n">
-        <v>31.165</v>
+        <v>119136.0946</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4644,32 +4594,38 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="C105" t="n">
-        <v>31.1</v>
+        <v>30.8</v>
       </c>
       <c r="D105" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="E105" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="F105" t="n">
-        <v>16896.4225</v>
+        <v>16394.2098</v>
       </c>
       <c r="G105" t="n">
-        <v>31.15</v>
+        <v>102741.8848</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4680,22 +4636,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="C106" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="D106" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="E106" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="F106" t="n">
-        <v>4219.1504</v>
+        <v>70486.4376</v>
       </c>
       <c r="G106" t="n">
-        <v>31.14</v>
+        <v>173228.3224</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4704,8 +4660,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4728,20 +4690,26 @@
         <v>31</v>
       </c>
       <c r="F107" t="n">
-        <v>18539.5348</v>
+        <v>20</v>
       </c>
       <c r="G107" t="n">
-        <v>31.12500000000001</v>
+        <v>173208.3224</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4764,10 +4732,10 @@
         <v>31</v>
       </c>
       <c r="F108" t="n">
-        <v>75.8712</v>
+        <v>2906.0218</v>
       </c>
       <c r="G108" t="n">
-        <v>31.11000000000001</v>
+        <v>173208.3224</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4776,8 +4744,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4788,22 +4762,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="C109" t="n">
-        <v>30.9</v>
+        <v>31.2</v>
       </c>
       <c r="D109" t="n">
-        <v>30.9</v>
+        <v>31.2</v>
       </c>
       <c r="E109" t="n">
         <v>30.9</v>
       </c>
       <c r="F109" t="n">
-        <v>10323.9996</v>
+        <v>2386.2144</v>
       </c>
       <c r="G109" t="n">
-        <v>31.1</v>
+        <v>175594.5368</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4812,8 +4786,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4836,10 +4816,10 @@
         <v>31.1</v>
       </c>
       <c r="F110" t="n">
-        <v>17887.3427</v>
+        <v>1606.0218</v>
       </c>
       <c r="G110" t="n">
-        <v>31.1</v>
+        <v>173988.515</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4848,8 +4828,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4860,22 +4846,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="C111" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="D111" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="E111" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="F111" t="n">
-        <v>5010</v>
+        <v>690.1894</v>
       </c>
       <c r="G111" t="n">
-        <v>31.08500000000001</v>
+        <v>174678.7044</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4884,8 +4870,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4896,22 +4888,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="C112" t="n">
-        <v>31</v>
+        <v>31.2</v>
       </c>
       <c r="D112" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="E112" t="n">
-        <v>31</v>
+        <v>31.2</v>
       </c>
       <c r="F112" t="n">
-        <v>94533.5407</v>
+        <v>6211.2202</v>
       </c>
       <c r="G112" t="n">
-        <v>31.07000000000001</v>
+        <v>174678.7044</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4920,8 +4912,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4932,36 +4930,1116 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>31</v>
+        <v>31.3</v>
       </c>
       <c r="C113" t="n">
-        <v>31</v>
+        <v>31.3</v>
       </c>
       <c r="D113" t="n">
-        <v>31</v>
+        <v>31.4</v>
       </c>
       <c r="E113" t="n">
-        <v>31</v>
+        <v>31.3</v>
       </c>
       <c r="F113" t="n">
+        <v>22708.7892</v>
+      </c>
+      <c r="G113" t="n">
+        <v>197387.4936</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="C114" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="D114" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E114" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="F114" t="n">
+        <v>70259.1814</v>
+      </c>
+      <c r="G114" t="n">
+        <v>197387.4936</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="C115" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="D115" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E115" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="F115" t="n">
+        <v>3662.7063</v>
+      </c>
+      <c r="G115" t="n">
+        <v>197387.4936</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="C116" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="D116" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E116" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1857.366</v>
+      </c>
+      <c r="G116" t="n">
+        <v>197387.4936</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="C117" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="D117" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E117" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F117" t="n">
+        <v>6898.6559</v>
+      </c>
+      <c r="G117" t="n">
+        <v>190488.8377</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C118" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="E118" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="F118" t="n">
+        <v>135.1096</v>
+      </c>
+      <c r="G118" t="n">
+        <v>190353.7281</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1.038624161073826</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D119" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="E119" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F119" t="n">
+        <v>20533.7916</v>
+      </c>
+      <c r="G119" t="n">
+        <v>169819.9365</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="C120" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="D120" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E120" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="F120" t="n">
+        <v>8878.6266</v>
+      </c>
+      <c r="G120" t="n">
+        <v>178698.5631</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="C121" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="D121" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E121" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="F121" t="n">
+        <v>6023.4666</v>
+      </c>
+      <c r="G121" t="n">
+        <v>178698.5631</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="C122" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D122" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E122" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F122" t="n">
+        <v>23079.1232</v>
+      </c>
+      <c r="G122" t="n">
+        <v>155619.4399</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>31</v>
+      </c>
+      <c r="C123" t="n">
+        <v>31</v>
+      </c>
+      <c r="D123" t="n">
+        <v>31</v>
+      </c>
+      <c r="E123" t="n">
+        <v>31</v>
+      </c>
+      <c r="F123" t="n">
+        <v>922.5</v>
+      </c>
+      <c r="G123" t="n">
+        <v>156541.9399</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>31</v>
+      </c>
+      <c r="C124" t="n">
+        <v>31</v>
+      </c>
+      <c r="D124" t="n">
+        <v>31</v>
+      </c>
+      <c r="E124" t="n">
+        <v>31</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2049.6401</v>
+      </c>
+      <c r="G124" t="n">
+        <v>156541.9399</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C125" t="n">
+        <v>31</v>
+      </c>
+      <c r="D125" t="n">
+        <v>31</v>
+      </c>
+      <c r="E125" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2404.3761</v>
+      </c>
+      <c r="G125" t="n">
+        <v>156541.9399</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="E126" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F126" t="n">
+        <v>10738.1661</v>
+      </c>
+      <c r="G126" t="n">
+        <v>167280.106</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="E127" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3021.0855</v>
+      </c>
+      <c r="G127" t="n">
+        <v>167280.106</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="E128" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="F128" t="n">
+        <v>6437.7927</v>
+      </c>
+      <c r="G128" t="n">
+        <v>167280.106</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="E129" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2814.2793</v>
+      </c>
+      <c r="G129" t="n">
+        <v>167280.106</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>31</v>
+      </c>
+      <c r="C130" t="n">
+        <v>31</v>
+      </c>
+      <c r="D130" t="n">
+        <v>31</v>
+      </c>
+      <c r="E130" t="n">
+        <v>31</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1053.5738</v>
+      </c>
+      <c r="G130" t="n">
+        <v>166226.5322</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="E131" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="F131" t="n">
+        <v>6372.6045</v>
+      </c>
+      <c r="G131" t="n">
+        <v>172599.1367</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="F132" t="n">
+        <v>6016.4705</v>
+      </c>
+      <c r="G132" t="n">
+        <v>172599.1367</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="E133" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>10</v>
+      </c>
+      <c r="G133" t="n">
+        <v>172599.1367</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="E134" t="n">
+        <v>31</v>
+      </c>
+      <c r="F134" t="n">
+        <v>16896.4225</v>
+      </c>
+      <c r="G134" t="n">
+        <v>172599.1367</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="D135" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E135" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="F135" t="n">
+        <v>4219.1504</v>
+      </c>
+      <c r="G135" t="n">
+        <v>176818.2871</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>31</v>
+      </c>
+      <c r="C136" t="n">
+        <v>31</v>
+      </c>
+      <c r="D136" t="n">
+        <v>31</v>
+      </c>
+      <c r="E136" t="n">
+        <v>31</v>
+      </c>
+      <c r="F136" t="n">
+        <v>18539.5348</v>
+      </c>
+      <c r="G136" t="n">
+        <v>158278.7523</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>31</v>
+      </c>
+      <c r="C137" t="n">
+        <v>31</v>
+      </c>
+      <c r="D137" t="n">
+        <v>31</v>
+      </c>
+      <c r="E137" t="n">
+        <v>31</v>
+      </c>
+      <c r="F137" t="n">
+        <v>75.8712</v>
+      </c>
+      <c r="G137" t="n">
+        <v>158278.7523</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C138" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D138" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E138" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F138" t="n">
+        <v>10323.9996</v>
+      </c>
+      <c r="G138" t="n">
+        <v>147954.7527</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C139" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="E139" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="F139" t="n">
+        <v>17887.3427</v>
+      </c>
+      <c r="G139" t="n">
+        <v>165842.0954</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="E140" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>5010</v>
+      </c>
+      <c r="G140" t="n">
+        <v>165842.0954</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>31</v>
+      </c>
+      <c r="D141" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="E141" t="n">
+        <v>31</v>
+      </c>
+      <c r="F141" t="n">
+        <v>94533.5407</v>
+      </c>
+      <c r="G141" t="n">
+        <v>71308.55469999999</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>31</v>
+      </c>
+      <c r="C142" t="n">
+        <v>31</v>
+      </c>
+      <c r="D142" t="n">
+        <v>31</v>
+      </c>
+      <c r="E142" t="n">
+        <v>31</v>
+      </c>
+      <c r="F142" t="n">
         <v>51</v>
       </c>
-      <c r="G113" t="n">
-        <v>31.05000000000001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="G142" t="n">
+        <v>71308.55469999999</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-30 BackTest WAX.xlsx
+++ b/BackTest/2019-10-30 BackTest WAX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-53818.74640000002</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-63818.74640000002</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-62500.95860000002</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-52500.95860000002</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-39944.76840000002</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-39944.76840000002</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-39453.07630000002</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-39453.07630000002</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-39503.07630000002</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-71202.93160000003</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-99632.59120000002</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-85565.69390000003</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1804,10 +1804,14 @@
         <v>-267848.7034000001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="J43" t="n">
+        <v>29.8</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
@@ -1840,8 +1844,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +1880,19 @@
         <v>-258816.4445</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>30</v>
+      </c>
+      <c r="J45" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +1921,19 @@
         <v>-285843.9587</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>30</v>
+      </c>
+      <c r="J46" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +1962,19 @@
         <v>-261667.9082</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="J47" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2003,19 @@
         <v>-261667.9082</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>30</v>
+      </c>
+      <c r="J48" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2044,19 @@
         <v>-265034.9115</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>30</v>
+      </c>
+      <c r="J49" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2085,19 @@
         <v>-264899.2716</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="J50" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2126,19 @@
         <v>-264899.2716</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>30</v>
+      </c>
+      <c r="J51" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2167,19 @@
         <v>-264899.2716</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>30</v>
+      </c>
+      <c r="J52" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2208,19 @@
         <v>-291099.2716</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>30</v>
+      </c>
+      <c r="J53" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2249,19 @@
         <v>-291099.2716</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="J54" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2290,19 @@
         <v>-291099.2716</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="J55" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2331,19 @@
         <v>-283811.9516</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="J56" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2372,19 @@
         <v>-283811.9516</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>30</v>
+      </c>
+      <c r="J57" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2416,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2452,19 @@
         <v>-283811.9516</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>30</v>
+      </c>
+      <c r="J59" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2496,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,15 +2532,19 @@
         <v>-292239.0441999999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>30.1</v>
       </c>
       <c r="J61" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
+        <v>29.8</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2439,11 +2577,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -2474,15 +2612,17 @@
         <v>-249481.1339</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>30</v>
+      </c>
       <c r="J63" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -2516,8 +2656,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2549,8 +2695,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2582,8 +2734,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2615,8 +2773,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2648,8 +2812,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2678,11 +2848,19 @@
         <v>-263744.4493</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2711,15 +2889,17 @@
         <v>-263744.4493</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>30.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
+        <v>29.8</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2748,17 +2928,17 @@
         <v>-263744.4493</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>30.3</v>
       </c>
       <c r="J71" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -2793,11 +2973,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -2828,15 +3008,19 @@
         <v>-263744.4493</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>30.3</v>
       </c>
       <c r="J73" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
+        <v>29.8</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2865,17 +3049,17 @@
         <v>-263744.4493</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>30.3</v>
       </c>
       <c r="J74" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -2910,11 +3094,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -2945,13 +3129,13 @@
         <v>-267601.1831</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>30.1</v>
       </c>
       <c r="J76" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -2986,13 +3170,13 @@
         <v>-267601.1831</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>30.1</v>
       </c>
       <c r="J77" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3027,13 +3211,13 @@
         <v>-267601.1831</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>30.1</v>
       </c>
       <c r="J78" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3068,13 +3252,13 @@
         <v>-267601.1831</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>30.1</v>
       </c>
       <c r="J79" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3109,13 +3293,13 @@
         <v>-266234.1897</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>30.1</v>
       </c>
       <c r="J80" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3150,13 +3334,13 @@
         <v>-237078.2488</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>30.3</v>
       </c>
       <c r="J81" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3191,13 +3375,13 @@
         <v>-237078.2488</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>30.4</v>
       </c>
       <c r="J82" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3232,13 +3416,13 @@
         <v>-237078.2488</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>30.4</v>
       </c>
       <c r="J83" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3273,13 +3457,13 @@
         <v>-232200.7293</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>30.4</v>
       </c>
       <c r="J84" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3314,13 +3498,13 @@
         <v>-254570.8891</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>30.5</v>
       </c>
       <c r="J85" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3355,13 +3539,13 @@
         <v>-254560.8891</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>30.4</v>
       </c>
       <c r="J86" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3396,13 +3580,13 @@
         <v>-252884.8022</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>30.5</v>
       </c>
       <c r="J87" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3437,13 +3621,13 @@
         <v>-252884.8022</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>30.6</v>
       </c>
       <c r="J88" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3478,11 +3662,13 @@
         <v>-252874.8022</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>30.6</v>
+      </c>
       <c r="J89" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3517,11 +3703,13 @@
         <v>-294118.8967</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>30.7</v>
+      </c>
       <c r="J90" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3556,11 +3744,13 @@
         <v>-294118.8967</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>30.6</v>
+      </c>
       <c r="J91" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3595,13 +3785,13 @@
         <v>-302552.866</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>30.6</v>
       </c>
       <c r="J92" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3636,13 +3826,13 @@
         <v>-208804.6027</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>30.4</v>
       </c>
       <c r="J93" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3677,13 +3867,13 @@
         <v>-56663.56659999999</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>30.9</v>
       </c>
       <c r="J94" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3718,19 +3908,19 @@
         <v>9688.131500000003</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.021402640264027</v>
+        <v>1</v>
       </c>
       <c r="M95" t="inlineStr"/>
     </row>
@@ -3757,11 +3947,17 @@
         <v>9688.131500000003</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3790,11 +3986,17 @@
         <v>95199.7925</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3823,11 +4025,17 @@
         <v>91509.7925</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3856,11 +4064,17 @@
         <v>91509.7925</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3889,11 +4103,17 @@
         <v>91509.7925</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3922,11 +4142,17 @@
         <v>86441.49589999999</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3955,11 +4181,17 @@
         <v>139408.8196</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3991,8 +4223,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4024,8 +4262,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4057,8 +4301,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4087,11 +4337,17 @@
         <v>173228.3224</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4123,8 +4379,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4153,11 +4415,17 @@
         <v>173208.3224</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4186,11 +4454,17 @@
         <v>175594.5368</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4219,11 +4493,17 @@
         <v>173988.515</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4252,11 +4532,17 @@
         <v>174678.7044</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4285,11 +4571,17 @@
         <v>174678.7044</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4318,11 +4610,17 @@
         <v>197387.4936</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4351,11 +4649,17 @@
         <v>197387.4936</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4384,11 +4688,17 @@
         <v>197387.4936</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4417,11 +4727,17 @@
         <v>197387.4936</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4450,11 +4766,17 @@
         <v>190488.8377</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4483,11 +4805,17 @@
         <v>190353.7281</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4516,11 +4844,17 @@
         <v>169819.9365</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4549,11 +4883,17 @@
         <v>178698.5631</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4582,11 +4922,17 @@
         <v>178698.5631</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4618,8 +4964,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4651,8 +5003,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4681,11 +5039,17 @@
         <v>156541.9399</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4714,13 +5078,19 @@
         <v>156541.9399</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L125" t="n">
-        <v>1</v>
+        <v>1.035268456375839</v>
       </c>
       <c r="M125" t="inlineStr"/>
     </row>
@@ -4780,7 +5150,7 @@
         <v>167280.106</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4846,7 +5216,7 @@
         <v>167280.106</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4912,7 +5282,7 @@
         <v>172599.1367</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4945,7 +5315,7 @@
         <v>172599.1367</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4978,7 +5348,7 @@
         <v>172599.1367</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5011,7 +5381,7 @@
         <v>172599.1367</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5044,7 +5414,7 @@
         <v>176818.2871</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5077,7 +5447,7 @@
         <v>158278.7523</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5110,7 +5480,7 @@
         <v>158278.7523</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5143,7 +5513,7 @@
         <v>147954.7527</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5176,7 +5546,7 @@
         <v>165842.0954</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5209,7 +5579,7 @@
         <v>165842.0954</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5275,7 +5645,7 @@
         <v>71308.55469999999</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5286,6 +5656,6 @@
       <c r="M142" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest WAX.xlsx
+++ b/BackTest/2019-10-30 BackTest WAX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,7 +616,7 @@
         <v>-39944.76840000002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-39944.76840000002</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-39453.07630000002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-39453.07630000002</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1210,10 +1210,14 @@
         <v>-236180.9856</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
@@ -1246,8 +1250,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1289,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1804,14 +1820,10 @@
         <v>-267848.7034000001</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J43" t="n">
-        <v>29.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
@@ -1844,14 +1856,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1880,19 +1886,11 @@
         <v>-258816.4445</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>30</v>
-      </c>
-      <c r="J45" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1921,19 +1919,11 @@
         <v>-285843.9587</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>30</v>
-      </c>
-      <c r="J46" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1962,19 +1952,11 @@
         <v>-261667.9082</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J47" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2003,19 +1985,11 @@
         <v>-261667.9082</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>30</v>
-      </c>
-      <c r="J48" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2044,19 +2018,11 @@
         <v>-265034.9115</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>30</v>
-      </c>
-      <c r="J49" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2085,19 +2051,11 @@
         <v>-264899.2716</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J50" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2126,19 +2084,11 @@
         <v>-264899.2716</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>30</v>
-      </c>
-      <c r="J51" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2167,19 +2117,11 @@
         <v>-264899.2716</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>30</v>
-      </c>
-      <c r="J52" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2208,19 +2150,11 @@
         <v>-291099.2716</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>30</v>
-      </c>
-      <c r="J53" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2249,19 +2183,11 @@
         <v>-291099.2716</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J54" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2290,19 +2216,11 @@
         <v>-291099.2716</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J55" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2331,19 +2249,11 @@
         <v>-283811.9516</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J56" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2372,19 +2282,11 @@
         <v>-283811.9516</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>30</v>
-      </c>
-      <c r="J57" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2416,14 +2318,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2452,19 +2348,11 @@
         <v>-283811.9516</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>30</v>
-      </c>
-      <c r="J59" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2496,14 +2384,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2532,19 +2414,11 @@
         <v>-292239.0441999999</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J61" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2576,14 +2450,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2612,19 +2480,11 @@
         <v>-249481.1339</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>30</v>
-      </c>
-      <c r="J63" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2656,14 +2516,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2695,14 +2549,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2734,14 +2582,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2773,14 +2615,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2812,14 +2648,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2848,19 +2678,11 @@
         <v>-263744.4493</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2892,14 +2714,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2928,19 +2744,11 @@
         <v>-263744.4493</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J71" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2972,14 +2780,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3008,19 +2810,11 @@
         <v>-263744.4493</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J73" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3049,19 +2843,11 @@
         <v>-263744.4493</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J74" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3093,14 +2879,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3129,19 +2909,11 @@
         <v>-267601.1831</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3176,13 +2948,9 @@
         <v>30.1</v>
       </c>
       <c r="J77" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>30.1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3211,17 +2979,15 @@
         <v>-267601.1831</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>30.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>29.8</v>
+        <v>30.1</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -3258,11 +3024,11 @@
         <v>30.1</v>
       </c>
       <c r="J79" t="n">
-        <v>29.8</v>
+        <v>30.1</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -3299,13 +3065,9 @@
         <v>30.1</v>
       </c>
       <c r="J80" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>30.1</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3334,17 +3096,15 @@
         <v>-237078.2488</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>30.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>29.8</v>
+        <v>30.1</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -3375,17 +3135,15 @@
         <v>-237078.2488</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>30.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>29.8</v>
+        <v>30.1</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -3416,19 +3174,11 @@
         <v>-237078.2488</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="J83" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3457,19 +3207,11 @@
         <v>-232200.7293</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3498,19 +3240,11 @@
         <v>-254570.8891</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="J85" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3539,19 +3273,11 @@
         <v>-254560.8891</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="J86" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3580,19 +3306,11 @@
         <v>-252884.8022</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="J87" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3621,19 +3339,11 @@
         <v>-252884.8022</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="J88" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3662,19 +3372,11 @@
         <v>-252874.8022</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="J89" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3703,19 +3405,11 @@
         <v>-294118.8967</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="J90" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3744,19 +3438,11 @@
         <v>-294118.8967</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="J91" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3785,19 +3471,11 @@
         <v>-302552.866</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="J92" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3826,19 +3504,11 @@
         <v>-208804.6027</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="J93" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3867,19 +3537,11 @@
         <v>-56663.56659999999</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="J94" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3908,17 +3570,11 @@
         <v>9688.131500000003</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3950,14 +3606,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3989,14 +3639,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4028,14 +3672,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4067,14 +3705,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4106,14 +3738,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4145,14 +3771,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4184,14 +3804,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4223,14 +3837,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4262,14 +3870,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4301,14 +3903,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4340,14 +3936,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4379,14 +3969,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4418,14 +4002,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4457,14 +4035,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4496,14 +4068,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4535,14 +4101,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4574,14 +4134,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4613,14 +4167,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4652,14 +4200,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4691,14 +4233,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4730,14 +4266,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4769,14 +4299,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4808,14 +4332,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4847,14 +4365,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4886,14 +4398,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4925,14 +4431,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4964,14 +4464,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5003,14 +4497,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5042,14 +4530,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5078,19 +4560,13 @@
         <v>156541.9399</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
-        <v>1.035268456375839</v>
+        <v>1</v>
       </c>
       <c r="M125" t="inlineStr"/>
     </row>
@@ -5282,7 +4758,7 @@
         <v>172599.1367</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5315,7 +4791,7 @@
         <v>172599.1367</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5348,7 +4824,7 @@
         <v>172599.1367</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5381,7 +4857,7 @@
         <v>172599.1367</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5414,7 +4890,7 @@
         <v>176818.2871</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5447,7 +4923,7 @@
         <v>158278.7523</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5480,7 +4956,7 @@
         <v>158278.7523</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5513,7 +4989,7 @@
         <v>147954.7527</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5546,7 +5022,7 @@
         <v>165842.0954</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5579,7 +5055,7 @@
         <v>165842.0954</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5645,7 +5121,7 @@
         <v>71308.55469999999</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5656,6 +5132,6 @@
       <c r="M142" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest WAX.xlsx
+++ b/BackTest/2019-10-30 BackTest WAX.xlsx
@@ -616,7 +616,7 @@
         <v>-39944.76840000002</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-39944.76840000002</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-39453.07630000002</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-39453.07630000002</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1210,14 +1210,10 @@
         <v>-236180.9856</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
@@ -1250,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1289,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -2249,10 +2233,14 @@
         <v>-283811.9516</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="J56" t="n">
+        <v>29.9</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
@@ -2285,8 +2273,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2318,8 +2312,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2645,10 +2645,14 @@
         <v>-264381.6783</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>30.2</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
@@ -2678,11 +2682,19 @@
         <v>-263744.4493</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2711,11 +2723,19 @@
         <v>-263744.4493</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J70" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2810,10 +2830,14 @@
         <v>-263744.4493</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>30.3</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
@@ -2843,11 +2867,19 @@
         <v>-263744.4493</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2876,11 +2908,19 @@
         <v>-267601.1831</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="J75" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2909,11 +2949,19 @@
         <v>-267601.1831</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2948,9 +2996,13 @@
         <v>30.1</v>
       </c>
       <c r="J77" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
+        <v>30.3</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2979,15 +3031,17 @@
         <v>-267601.1831</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>30.1</v>
+      </c>
       <c r="J78" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -3024,11 +3078,11 @@
         <v>30.1</v>
       </c>
       <c r="J79" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -3065,9 +3119,13 @@
         <v>30.1</v>
       </c>
       <c r="J80" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
+        <v>30.3</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3096,15 +3154,17 @@
         <v>-237078.2488</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>30.3</v>
+      </c>
       <c r="J81" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -3135,15 +3195,17 @@
         <v>-237078.2488</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>30.4</v>
+      </c>
       <c r="J82" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -3174,11 +3236,19 @@
         <v>-237078.2488</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J83" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3207,11 +3277,19 @@
         <v>-232200.7293</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J84" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3240,11 +3318,19 @@
         <v>-254570.8891</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="J85" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3273,11 +3359,17 @@
         <v>-254560.8891</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3306,11 +3398,19 @@
         <v>-252884.8022</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="J87" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3339,11 +3439,17 @@
         <v>-252884.8022</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3372,11 +3478,17 @@
         <v>-252874.8022</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3405,11 +3517,17 @@
         <v>-294118.8967</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3438,11 +3556,17 @@
         <v>-294118.8967</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3471,11 +3595,19 @@
         <v>-302552.866</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3504,11 +3636,19 @@
         <v>-208804.6027</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J93" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3537,11 +3677,17 @@
         <v>-56663.56659999999</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3570,11 +3716,17 @@
         <v>9688.131500000003</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3606,8 +3758,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3639,8 +3797,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3672,8 +3836,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3705,8 +3875,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3738,8 +3914,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3771,8 +3953,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3804,8 +3992,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3837,8 +4031,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3870,8 +4070,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3903,8 +4109,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3936,8 +4148,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3969,8 +4187,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4002,8 +4226,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4035,8 +4265,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4068,8 +4304,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4101,8 +4343,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4134,8 +4382,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4167,8 +4421,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4200,8 +4460,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4233,8 +4499,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4263,13 +4535,19 @@
         <v>197387.4936</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L116" t="n">
-        <v>1</v>
+        <v>1.028003300330033</v>
       </c>
       <c r="M116" t="inlineStr"/>
     </row>
@@ -4329,7 +4607,7 @@
         <v>190353.7281</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4395,7 +4673,7 @@
         <v>178698.5631</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4428,7 +4706,7 @@
         <v>178698.5631</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4461,7 +4739,7 @@
         <v>155619.4399</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4494,7 +4772,7 @@
         <v>156541.9399</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4659,7 +4937,7 @@
         <v>167280.106</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4725,7 +5003,7 @@
         <v>166226.5322</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4923,7 +5201,7 @@
         <v>158278.7523</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>

--- a/BackTest/2019-10-30 BackTest WAX.xlsx
+++ b/BackTest/2019-10-30 BackTest WAX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M142"/>
+  <dimension ref="A1:L142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>165.5629</v>
       </c>
       <c r="G2" t="n">
-        <v>-53818.74640000002</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>10000</v>
       </c>
       <c r="G3" t="n">
-        <v>-63818.74640000002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1317.7878</v>
       </c>
       <c r="G4" t="n">
-        <v>-62500.95860000002</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>10000</v>
       </c>
       <c r="G5" t="n">
-        <v>-52500.95860000002</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>14991</v>
       </c>
       <c r="G6" t="n">
-        <v>-37509.95860000002</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>2434.8098</v>
       </c>
       <c r="G7" t="n">
-        <v>-39944.76840000002</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>999.5804000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>-39944.76840000002</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>491.6921</v>
       </c>
       <c r="G9" t="n">
-        <v>-39453.07630000002</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>2393.0025</v>
       </c>
       <c r="G10" t="n">
-        <v>-39453.07630000002</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>50</v>
       </c>
       <c r="G11" t="n">
-        <v>-39503.07630000002</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>31699.8553</v>
       </c>
       <c r="G12" t="n">
-        <v>-71202.93160000003</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>28429.6596</v>
       </c>
       <c r="G13" t="n">
-        <v>-99632.59120000002</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>14066.8973</v>
       </c>
       <c r="G14" t="n">
-        <v>-85565.69390000003</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>5000</v>
       </c>
       <c r="G15" t="n">
-        <v>-85565.69390000003</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>2000</v>
       </c>
       <c r="G16" t="n">
-        <v>-85565.69390000003</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>22742.2271</v>
       </c>
       <c r="G17" t="n">
-        <v>-108307.921</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>97979.88250000001</v>
       </c>
       <c r="G18" t="n">
-        <v>-206287.8035</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>6295.0128</v>
       </c>
       <c r="G19" t="n">
-        <v>-206287.8035</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>3189.4451</v>
       </c>
       <c r="G20" t="n">
-        <v>-209477.2486</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>36324.125</v>
       </c>
       <c r="G21" t="n">
-        <v>-209477.2486</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>94202.5285</v>
       </c>
       <c r="G22" t="n">
-        <v>-303679.7771000001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>33679.4787</v>
       </c>
       <c r="G23" t="n">
-        <v>-337359.2558</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,19 @@
         <v>23914.0479</v>
       </c>
       <c r="G24" t="n">
-        <v>-313445.2079</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>29.4</v>
+      </c>
+      <c r="I24" t="n">
+        <v>29.4</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1137,23 @@
         <v>77264.22229999999</v>
       </c>
       <c r="G25" t="n">
-        <v>-236180.9856</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>29.5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1175,23 @@
         <v>5702.4333</v>
       </c>
       <c r="G26" t="n">
-        <v>-230478.5523</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>29.6</v>
+      </c>
+      <c r="I26" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1213,19 @@
         <v>333.3333</v>
       </c>
       <c r="G27" t="n">
-        <v>-230478.5523</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="I27" t="n">
+        <v>30</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1247,21 @@
         <v>9259.25</v>
       </c>
       <c r="G28" t="n">
-        <v>-239737.8023</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>30</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1283,21 @@
         <v>4000</v>
       </c>
       <c r="G29" t="n">
-        <v>-235737.8023</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>30</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1319,21 @@
         <v>7352.4524</v>
       </c>
       <c r="G30" t="n">
-        <v>-243090.2547</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>30</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1355,23 @@
         <v>472.6646</v>
       </c>
       <c r="G31" t="n">
-        <v>-242617.5901000001</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>29.7</v>
+      </c>
+      <c r="I31" t="n">
+        <v>30</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1393,23 @@
         <v>18075.2746</v>
       </c>
       <c r="G32" t="n">
-        <v>-224542.3155000001</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>29.8</v>
+      </c>
+      <c r="I32" t="n">
+        <v>30</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1431,21 @@
         <v>4416.6943</v>
       </c>
       <c r="G33" t="n">
-        <v>-220125.6212000001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>30</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1467,21 @@
         <v>12239.4647</v>
       </c>
       <c r="G34" t="n">
-        <v>-220125.6212000001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>30</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1503,21 @@
         <v>23154.541</v>
       </c>
       <c r="G35" t="n">
-        <v>-243280.1622</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>30</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1539,21 @@
         <v>13488.9353</v>
       </c>
       <c r="G36" t="n">
-        <v>-243280.1622</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>30</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1575,21 @@
         <v>37.5846</v>
       </c>
       <c r="G37" t="n">
-        <v>-243242.5776</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>30</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1611,21 @@
         <v>24606.1258</v>
       </c>
       <c r="G38" t="n">
-        <v>-267848.7034000001</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>30</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1647,21 @@
         <v>607.3003</v>
       </c>
       <c r="G39" t="n">
-        <v>-267848.7034000001</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>30</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1683,21 @@
         <v>5057.1183</v>
       </c>
       <c r="G40" t="n">
-        <v>-267848.7034000001</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>30</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1719,21 @@
         <v>1000</v>
       </c>
       <c r="G41" t="n">
-        <v>-267848.7034000001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>30</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1755,21 @@
         <v>2000</v>
       </c>
       <c r="G42" t="n">
-        <v>-267848.7034000001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>30</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1791,21 @@
         <v>167.7852</v>
       </c>
       <c r="G43" t="n">
-        <v>-267848.7034000001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>30</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1827,21 @@
         <v>9032.258900000001</v>
       </c>
       <c r="G44" t="n">
-        <v>-258816.4445</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>30</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1863,21 @@
         <v>8161.9333</v>
       </c>
       <c r="G45" t="n">
-        <v>-258816.4445</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>30</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1899,21 @@
         <v>27027.5142</v>
       </c>
       <c r="G46" t="n">
-        <v>-285843.9587</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>30</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1935,21 @@
         <v>24176.0505</v>
       </c>
       <c r="G47" t="n">
-        <v>-261667.9082</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>30</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1971,21 @@
         <v>104.4666</v>
       </c>
       <c r="G48" t="n">
-        <v>-261667.9082</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>30</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2007,21 @@
         <v>3367.0033</v>
       </c>
       <c r="G49" t="n">
-        <v>-265034.9115</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>30</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2043,21 @@
         <v>135.6399</v>
       </c>
       <c r="G50" t="n">
-        <v>-264899.2716</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>30</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2079,21 @@
         <v>3343.8858</v>
       </c>
       <c r="G51" t="n">
-        <v>-264899.2716</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>30</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2115,21 @@
         <v>1368.7942</v>
       </c>
       <c r="G52" t="n">
-        <v>-264899.2716</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>30</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2151,21 @@
         <v>26200</v>
       </c>
       <c r="G53" t="n">
-        <v>-291099.2716</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>30</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2187,21 @@
         <v>11821.6344</v>
       </c>
       <c r="G54" t="n">
-        <v>-291099.2716</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>30</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2223,21 @@
         <v>20000</v>
       </c>
       <c r="G55" t="n">
-        <v>-291099.2716</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>30</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,22 +2259,21 @@
         <v>7287.32</v>
       </c>
       <c r="G56" t="n">
-        <v>-283811.9516</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="J56" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2267,24 +2295,21 @@
         <v>3749.5889</v>
       </c>
       <c r="G57" t="n">
-        <v>-283811.9516</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>30</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2306,24 +2331,21 @@
         <v>11089.9077</v>
       </c>
       <c r="G58" t="n">
-        <v>-283811.9516</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>30</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2345,18 +2367,21 @@
         <v>6315.6071</v>
       </c>
       <c r="G59" t="n">
-        <v>-283811.9516</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>30</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2378,18 +2403,21 @@
         <v>1572.9074</v>
       </c>
       <c r="G60" t="n">
-        <v>-282239.0441999999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>30</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2411,18 +2439,21 @@
         <v>10000</v>
       </c>
       <c r="G61" t="n">
-        <v>-292239.0441999999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>30</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2444,18 +2475,21 @@
         <v>3521</v>
       </c>
       <c r="G62" t="n">
-        <v>-292239.0441999999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>30</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2477,18 +2511,21 @@
         <v>42757.9103</v>
       </c>
       <c r="G63" t="n">
-        <v>-249481.1339</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>30</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2510,18 +2547,21 @@
         <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>-249471.1339</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>30</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2543,18 +2583,21 @@
         <v>2761.3259</v>
       </c>
       <c r="G65" t="n">
-        <v>-249471.1339</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>30</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2576,18 +2619,21 @@
         <v>1945.5336</v>
       </c>
       <c r="G66" t="n">
-        <v>-247525.6003</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>30</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2609,18 +2655,21 @@
         <v>16435.298</v>
       </c>
       <c r="G67" t="n">
-        <v>-263960.8982999999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>30</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2642,22 +2691,21 @@
         <v>420.78</v>
       </c>
       <c r="G68" t="n">
-        <v>-264381.6783</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="J68" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2679,26 +2727,21 @@
         <v>637.229</v>
       </c>
       <c r="G69" t="n">
-        <v>-263744.4493</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2720,26 +2763,21 @@
         <v>34343.4567</v>
       </c>
       <c r="G70" t="n">
-        <v>-263744.4493</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2761,18 +2799,21 @@
         <v>10000</v>
       </c>
       <c r="G71" t="n">
-        <v>-263744.4493</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>30</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2794,18 +2835,21 @@
         <v>637.229</v>
       </c>
       <c r="G72" t="n">
-        <v>-263744.4493</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>30</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2827,22 +2871,21 @@
         <v>2874.3518</v>
       </c>
       <c r="G73" t="n">
-        <v>-263744.4493</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J73" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2864,26 +2907,21 @@
         <v>5885.2145</v>
       </c>
       <c r="G74" t="n">
-        <v>-263744.4493</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J74" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2905,26 +2943,21 @@
         <v>3856.7338</v>
       </c>
       <c r="G75" t="n">
-        <v>-267601.1831</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J75" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2946,26 +2979,21 @@
         <v>2886.8199</v>
       </c>
       <c r="G76" t="n">
-        <v>-267601.1831</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2987,26 +3015,21 @@
         <v>28901.0099</v>
       </c>
       <c r="G77" t="n">
-        <v>-267601.1831</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3028,26 +3051,21 @@
         <v>40490.708</v>
       </c>
       <c r="G78" t="n">
-        <v>-267601.1831</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3069,26 +3087,21 @@
         <v>10428.2321</v>
       </c>
       <c r="G79" t="n">
-        <v>-267601.1831</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3110,26 +3123,21 @@
         <v>1366.9934</v>
       </c>
       <c r="G80" t="n">
-        <v>-266234.1897</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3151,26 +3159,21 @@
         <v>29155.9409</v>
       </c>
       <c r="G81" t="n">
-        <v>-237078.2488</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="J81" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3192,26 +3195,21 @@
         <v>33105.6708</v>
       </c>
       <c r="G82" t="n">
-        <v>-237078.2488</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="J82" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3233,26 +3231,21 @@
         <v>20547.3908</v>
       </c>
       <c r="G83" t="n">
-        <v>-237078.2488</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="J83" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3274,26 +3267,21 @@
         <v>4877.5195</v>
       </c>
       <c r="G84" t="n">
-        <v>-232200.7293</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3315,26 +3303,21 @@
         <v>22370.1598</v>
       </c>
       <c r="G85" t="n">
-        <v>-254570.8891</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="J85" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3356,24 +3339,21 @@
         <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>-254560.8891</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>30</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3395,26 +3375,21 @@
         <v>1676.0869</v>
       </c>
       <c r="G87" t="n">
-        <v>-252884.8022</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="J87" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3436,24 +3411,21 @@
         <v>8492.8251</v>
       </c>
       <c r="G88" t="n">
-        <v>-252884.8022</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>30</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3475,24 +3447,21 @@
         <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>-252874.8022</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>30</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3514,24 +3483,21 @@
         <v>41244.0945</v>
       </c>
       <c r="G90" t="n">
-        <v>-294118.8967</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>30</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3553,24 +3519,21 @@
         <v>23.7581</v>
       </c>
       <c r="G91" t="n">
-        <v>-294118.8967</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>30</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3592,26 +3555,21 @@
         <v>8433.969300000001</v>
       </c>
       <c r="G92" t="n">
-        <v>-302552.866</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="J92" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3633,26 +3591,21 @@
         <v>93748.26330000001</v>
       </c>
       <c r="G93" t="n">
-        <v>-208804.6027</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="J93" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3674,24 +3627,21 @@
         <v>152141.0361</v>
       </c>
       <c r="G94" t="n">
-        <v>-56663.56659999999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>30</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3713,24 +3663,21 @@
         <v>66351.69809999999</v>
       </c>
       <c r="G95" t="n">
-        <v>9688.131500000003</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>30</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3752,24 +3699,21 @@
         <v>12987.7569</v>
       </c>
       <c r="G96" t="n">
-        <v>9688.131500000003</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>30</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3791,24 +3735,21 @@
         <v>85511.66099999999</v>
       </c>
       <c r="G97" t="n">
-        <v>95199.7925</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>30</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3830,24 +3771,21 @@
         <v>3690</v>
       </c>
       <c r="G98" t="n">
-        <v>91509.7925</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>30</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3869,24 +3807,21 @@
         <v>1310</v>
       </c>
       <c r="G99" t="n">
-        <v>91509.7925</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>30</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3908,24 +3843,21 @@
         <v>1619.7809</v>
       </c>
       <c r="G100" t="n">
-        <v>91509.7925</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>30</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3947,24 +3879,21 @@
         <v>5068.2966</v>
       </c>
       <c r="G101" t="n">
-        <v>86441.49589999999</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>30</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3986,24 +3915,21 @@
         <v>52967.3237</v>
       </c>
       <c r="G102" t="n">
-        <v>139408.8196</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>30</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4025,24 +3951,21 @@
         <v>20272.725</v>
       </c>
       <c r="G103" t="n">
-        <v>119136.0946</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>30</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4064,24 +3987,21 @@
         <v>18068.8375</v>
       </c>
       <c r="G104" t="n">
-        <v>119136.0946</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>30</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4103,24 +4023,21 @@
         <v>16394.2098</v>
       </c>
       <c r="G105" t="n">
-        <v>102741.8848</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>30</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4142,24 +4059,21 @@
         <v>70486.4376</v>
       </c>
       <c r="G106" t="n">
-        <v>173228.3224</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>30</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4181,24 +4095,21 @@
         <v>20</v>
       </c>
       <c r="G107" t="n">
-        <v>173208.3224</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>30</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4220,24 +4131,21 @@
         <v>2906.0218</v>
       </c>
       <c r="G108" t="n">
-        <v>173208.3224</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>30</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4259,24 +4167,21 @@
         <v>2386.2144</v>
       </c>
       <c r="G109" t="n">
-        <v>175594.5368</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>30</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4298,24 +4203,21 @@
         <v>1606.0218</v>
       </c>
       <c r="G110" t="n">
-        <v>173988.515</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>30</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4337,24 +4239,21 @@
         <v>690.1894</v>
       </c>
       <c r="G111" t="n">
-        <v>174678.7044</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>30</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4376,24 +4275,21 @@
         <v>6211.2202</v>
       </c>
       <c r="G112" t="n">
-        <v>174678.7044</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>30</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4415,24 +4311,21 @@
         <v>22708.7892</v>
       </c>
       <c r="G113" t="n">
-        <v>197387.4936</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>30</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4454,24 +4347,21 @@
         <v>70259.1814</v>
       </c>
       <c r="G114" t="n">
-        <v>197387.4936</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>30</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4493,24 +4383,21 @@
         <v>3662.7063</v>
       </c>
       <c r="G115" t="n">
-        <v>197387.4936</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>30</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1.038333333333334</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4532,24 +4419,15 @@
         <v>1857.366</v>
       </c>
       <c r="G116" t="n">
-        <v>197387.4936</v>
-      </c>
-      <c r="H116" t="n">
         <v>2</v>
       </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1.028003300330033</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4571,18 +4449,15 @@
         <v>6898.6559</v>
       </c>
       <c r="G117" t="n">
-        <v>190488.8377</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4604,18 +4479,15 @@
         <v>135.1096</v>
       </c>
       <c r="G118" t="n">
-        <v>190353.7281</v>
-      </c>
-      <c r="H118" t="n">
         <v>2</v>
       </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4637,18 +4509,15 @@
         <v>20533.7916</v>
       </c>
       <c r="G119" t="n">
-        <v>169819.9365</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4670,18 +4539,15 @@
         <v>8878.6266</v>
       </c>
       <c r="G120" t="n">
-        <v>178698.5631</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4703,18 +4569,15 @@
         <v>6023.4666</v>
       </c>
       <c r="G121" t="n">
-        <v>178698.5631</v>
-      </c>
-      <c r="H121" t="n">
         <v>2</v>
       </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4736,18 +4599,15 @@
         <v>23079.1232</v>
       </c>
       <c r="G122" t="n">
-        <v>155619.4399</v>
-      </c>
-      <c r="H122" t="n">
         <v>2</v>
       </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4769,18 +4629,15 @@
         <v>922.5</v>
       </c>
       <c r="G123" t="n">
-        <v>156541.9399</v>
-      </c>
-      <c r="H123" t="n">
         <v>2</v>
       </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4802,18 +4659,15 @@
         <v>2049.6401</v>
       </c>
       <c r="G124" t="n">
-        <v>156541.9399</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4835,18 +4689,15 @@
         <v>2404.3761</v>
       </c>
       <c r="G125" t="n">
-        <v>156541.9399</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4868,18 +4719,15 @@
         <v>10738.1661</v>
       </c>
       <c r="G126" t="n">
-        <v>167280.106</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4901,18 +4749,15 @@
         <v>3021.0855</v>
       </c>
       <c r="G127" t="n">
-        <v>167280.106</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4934,18 +4779,15 @@
         <v>6437.7927</v>
       </c>
       <c r="G128" t="n">
-        <v>167280.106</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4967,18 +4809,15 @@
         <v>2814.2793</v>
       </c>
       <c r="G129" t="n">
-        <v>167280.106</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5000,18 +4839,15 @@
         <v>1053.5738</v>
       </c>
       <c r="G130" t="n">
-        <v>166226.5322</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5033,18 +4869,15 @@
         <v>6372.6045</v>
       </c>
       <c r="G131" t="n">
-        <v>172599.1367</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5066,18 +4899,15 @@
         <v>6016.4705</v>
       </c>
       <c r="G132" t="n">
-        <v>172599.1367</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5099,18 +4929,15 @@
         <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>172599.1367</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5132,18 +4959,15 @@
         <v>16896.4225</v>
       </c>
       <c r="G134" t="n">
-        <v>172599.1367</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5165,18 +4989,15 @@
         <v>4219.1504</v>
       </c>
       <c r="G135" t="n">
-        <v>176818.2871</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5198,18 +5019,15 @@
         <v>18539.5348</v>
       </c>
       <c r="G136" t="n">
-        <v>158278.7523</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5231,18 +5049,15 @@
         <v>75.8712</v>
       </c>
       <c r="G137" t="n">
-        <v>158278.7523</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5264,18 +5079,15 @@
         <v>10323.9996</v>
       </c>
       <c r="G138" t="n">
-        <v>147954.7527</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5297,18 +5109,15 @@
         <v>17887.3427</v>
       </c>
       <c r="G139" t="n">
-        <v>165842.0954</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5330,18 +5139,15 @@
         <v>5010</v>
       </c>
       <c r="G140" t="n">
-        <v>165842.0954</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5363,18 +5169,15 @@
         <v>94533.5407</v>
       </c>
       <c r="G141" t="n">
-        <v>71308.55469999999</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5396,18 +5199,15 @@
         <v>51</v>
       </c>
       <c r="G142" t="n">
-        <v>71308.55469999999</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
